--- a/correlated_variables.xlsx
+++ b/correlated_variables.xlsx
@@ -725,73 +725,73 @@
         <v>0.00187092622154605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00456948663906811</v>
+        <v>0.00456949225725196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00216601596545469</v>
+        <v>0.00216601674522994</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00110652655947393</v>
+        <v>0.00110652376835424</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00269916673341907</v>
+        <v>0.00269916964669239</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0180766752818128</v>
+        <v>0.0180766775955244</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00514151472108499</v>
+        <v>0.00514151573901353</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0056049375947704</v>
+        <v>0.00560493974184964</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.000434104321558039</v>
+        <v>-0.000434102648211083</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00323912388260928</v>
+        <v>0.00323912398528461</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00403672465747144</v>
+        <v>0.00403672630812032</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00136977143454335</v>
+        <v>0.00136977355312769</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.00217130245258126</v>
+        <v>-0.00217130766241313</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.00032043896246815</v>
+        <v>-0.000320440359435945</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0195009949240655</v>
+        <v>0.0195009946251393</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00249896079534088</v>
+        <v>0.00249895875407991</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.000530057674622304</v>
+        <v>-0.000530060000560809</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00532400000065206</v>
+        <v>0.00532400296345795</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.000289838102586946</v>
+        <v>0.000289839047075012</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00472469747834575</v>
+        <v>0.00472469933350857</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00381104653857337</v>
+        <v>0.00381104439746245</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.00640169696178478</v>
+        <v>0.00640169708256808</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00119469927844826</v>
+        <v>0.00119470150860979</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00196952434836847</v>
+        <v>-0.00196952531027392</v>
       </c>
     </row>
     <row r="3">
@@ -820,73 +820,73 @@
         <v>-0.00424603624966315</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00095025330911234</v>
+        <v>-0.000950266108002853</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.00199265846249634</v>
+        <v>-0.00199266086462617</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00466864457397391</v>
+        <v>0.00466864563003822</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000319437818054483</v>
+        <v>0.000319437073554006</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00498100466732257</v>
+        <v>0.00498100193324859</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.00169275577508593</v>
+        <v>-0.00169275994515899</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.00146859858747185</v>
+        <v>-0.00146859997961695</v>
       </c>
       <c r="P3" t="n">
-        <v>0.000203455733520402</v>
+        <v>0.000203457519467029</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.00506009974513493</v>
+        <v>-0.00506009996708813</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.00190802632283931</v>
+        <v>-0.00190803058230543</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00904824356327285</v>
+        <v>0.0090482499723117</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.00465175110653547</v>
+        <v>-0.00465175536362765</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.00561648081188657</v>
+        <v>-0.0056164805793456</v>
       </c>
       <c r="V3" t="n">
-        <v>0.011329101830151</v>
+        <v>0.0113291057975355</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.00181476696691115</v>
+        <v>-0.00181477503052622</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.00468762332104366</v>
+        <v>-0.00468762945757196</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.00552152585625112</v>
+        <v>-0.00552153109665416</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.00272376941992586</v>
+        <v>-0.00272376679746194</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.00610400592688108</v>
+        <v>-0.00610401108275644</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.00364888699628792</v>
+        <v>0.00364888197898253</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00149767008214011</v>
+        <v>0.00149765775185783</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.00245144020521407</v>
+        <v>-0.00245143966501614</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.0018878231433183</v>
+        <v>-0.00188782247726078</v>
       </c>
     </row>
     <row r="4">
@@ -915,73 +915,73 @@
         <v>0.00407872090194369</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00680916532933197</v>
+        <v>0.00680916557608898</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00337262928354035</v>
+        <v>0.00337262878185437</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.00404432031483816</v>
+        <v>-0.00404432276463816</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.000440672159091687</v>
+        <v>-0.00044066934413397</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.00975372900352952</v>
+        <v>-0.00975372671401696</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00277132705103399</v>
+        <v>0.00277132813399387</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00274202340352458</v>
+        <v>0.00274202506650403</v>
       </c>
       <c r="P4" t="n">
-        <v>0.000940251565198201</v>
+        <v>0.000940253975167002</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00251377421925983</v>
+        <v>0.00251377421008139</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00443937005058219</v>
+        <v>0.00443937256651373</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.00752568815928062</v>
+        <v>-0.00752568537794951</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00281195041084039</v>
+        <v>0.00281194412784193</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.00175363514305264</v>
+        <v>-0.00175363818995402</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0189376875712752</v>
+        <v>-0.0189376850256592</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00566432603092302</v>
+        <v>0.00566432791273014</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00551955122216339</v>
+        <v>0.00551955214724072</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.000701538500006891</v>
+        <v>0.000701541117784429</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00540019106047912</v>
+        <v>0.005400190716457</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00439614610693927</v>
+        <v>0.00439614988565711</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.00288867006790064</v>
+        <v>0.00288867181346864</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0137068615530344</v>
+        <v>0.0137068697999101</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.00436048988964353</v>
+        <v>-0.00436048773321585</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.00359771742204884</v>
+        <v>0.00359771189699057</v>
       </c>
     </row>
     <row r="5">
@@ -1010,73 +1010,73 @@
         <v>0.00176168046132872</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00506822031884403</v>
+        <v>-0.00506819947221169</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0057127865021196</v>
+        <v>-0.00571278231464</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.00883691159156058</v>
+        <v>-0.00883691202330291</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0077996089158708</v>
+        <v>-0.00779960902306443</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0155168212886642</v>
+        <v>-0.0155168173973675</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.00838861658592021</v>
+        <v>-0.00838860916416849</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0109951687424066</v>
+        <v>-0.0109951672140571</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00304020758361227</v>
+        <v>0.00304020354797941</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0107703587277353</v>
+        <v>-0.0107703588395593</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.00797850811710024</v>
+        <v>-0.00797849917337397</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00722051232574991</v>
+        <v>0.00722050688985557</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.00563823606134522</v>
+        <v>-0.00563824111972739</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0108396857584662</v>
+        <v>-0.0108396833325472</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0370498867391667</v>
+        <v>-0.0370498796283805</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.00686012954018323</v>
+        <v>-0.00686013056719584</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.00824922812009559</v>
+        <v>-0.00824922973168198</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.016059000864734</v>
+        <v>-0.016059002954829</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.00221538140740353</v>
+        <v>-0.0022153800835967</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.00715265517987506</v>
+        <v>-0.00715265590295191</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.00961390108254713</v>
+        <v>-0.00961390059207585</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0142580060660623</v>
+        <v>-0.0142580140599956</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.00278221792121303</v>
+        <v>0.00278221941055625</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.00239654632631407</v>
+        <v>0.00239655360672596</v>
       </c>
     </row>
     <row r="6">
@@ -1105,73 +1105,73 @@
         <v>0.0000206807031364507</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000201199702498647</v>
+        <v>0.000201181926561641</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.000548723434055004</v>
+        <v>-0.000548726887629386</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00525211842179925</v>
+        <v>-0.00525211660525669</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00373456776740902</v>
+        <v>-0.00373456943274661</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0132164386888309</v>
+        <v>-0.0132164426563863</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.00528980952844225</v>
+        <v>-0.00528981501305251</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.00344295004953263</v>
+        <v>-0.00344295211112002</v>
       </c>
       <c r="P6" t="n">
-        <v>0.000755664941772204</v>
+        <v>0.000755667921919032</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.00500169973183728</v>
+        <v>-0.00500169994900027</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.00239440950052451</v>
+        <v>-0.00239441530391076</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.00166871167329704</v>
+        <v>-0.00166870474338059</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.000334236788768148</v>
+        <v>-0.000334238538681877</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.000221489696045515</v>
+        <v>-0.000221490419971193</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.00482808840590817</v>
+        <v>-0.00482808679616401</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0022942801888468</v>
+        <v>-0.00229428678331739</v>
       </c>
       <c r="X6" t="n">
-        <v>0.000160695982883899</v>
+        <v>0.000160691352747077</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.00611531897514525</v>
+        <v>-0.00611532466428676</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.00020015348097154</v>
+        <v>-0.000200150972072758</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.00604606772387865</v>
+        <v>-0.00604607278352644</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.00243334902958653</v>
+        <v>0.00243334482930296</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.00171746772498677</v>
+        <v>-0.00171747910012916</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.00263957199428832</v>
+        <v>-0.00263957258925278</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.000604044817631543</v>
+        <v>0.000604045715966948</v>
       </c>
     </row>
     <row r="7">
@@ -1200,73 +1200,73 @@
         <v>0.00663335480345027</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0102784616612318</v>
+        <v>0.0102784616007819</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00893740095815405</v>
+        <v>0.00893740259182619</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00442355665380449</v>
+        <v>0.00442355353528778</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00465296953388182</v>
+        <v>0.00465297292004586</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0104403829953682</v>
+        <v>0.0104403870379788</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00893941713831407</v>
+        <v>0.00893942074384989</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0111304714864612</v>
+        <v>0.0111304740555314</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00539619795832651</v>
+        <v>0.00539619854351921</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0077466469765653</v>
+        <v>0.0077466467184874</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00332955587088648</v>
+        <v>0.00332956011938943</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.00252825095400948</v>
+        <v>-0.00252824997871107</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0015145508952459</v>
+        <v>-0.00151455831804259</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00693401997269015</v>
+        <v>0.00693402017759291</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0112723703755748</v>
+        <v>0.0112723771983067</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00990099463953362</v>
+        <v>0.00990099207877967</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0153276147452585</v>
+        <v>0.015327612075376</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0121180365935298</v>
+        <v>0.0121180377532438</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0247015283205764</v>
+        <v>0.0247015285324105</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0130900614730463</v>
+        <v>0.0130900634545199</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.00748233922257526</v>
+        <v>0.00748233869850636</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0238607587957812</v>
+        <v>0.0238607577642301</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.00186893481548254</v>
+        <v>-0.00186893063105248</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.00180897084314291</v>
+        <v>-0.00180897367805069</v>
       </c>
     </row>
     <row r="8">
@@ -1295,73 +1295,73 @@
         <v>0.00227355380052419</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.000457934064277672</v>
+        <v>-0.000457955728288186</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000877228355431693</v>
+        <v>0.000877224135836418</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00683139021898211</v>
+        <v>0.0068313940231523</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00171678189476122</v>
+        <v>0.00171677832009062</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.00154823924024745</v>
+        <v>-0.00154824558545124</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.00021994721721436</v>
+        <v>-0.00021995499928435</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.000701349566606533</v>
+        <v>-0.000701353510612138</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00171738479493149</v>
+        <v>0.00171738632223616</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00516966916523369</v>
+        <v>0.00516966877806148</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.000780626931466147</v>
+        <v>-0.000780637376551004</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.00913665406999776</v>
+        <v>-0.009136650175931</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00425284040855145</v>
+        <v>0.00425284854770455</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00445184340060737</v>
+        <v>0.00445184527535791</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0179283216812083</v>
+        <v>0.0179283215514668</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.00107942870946454</v>
+        <v>-0.00107942973062917</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00169685866889043</v>
+        <v>0.00169685967000937</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.00168385371384642</v>
+        <v>-0.00168385672791636</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.00657331055040017</v>
+        <v>0.00657331009254103</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.00214099221759395</v>
+        <v>-0.00214099761702434</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.00248785958208667</v>
+        <v>0.00248785817643053</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.00473066014112978</v>
+        <v>0.00473065827926653</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.0060019751461399</v>
+        <v>-0.00600197796826604</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.00225981238719666</v>
+        <v>-0.0022598153910266</v>
       </c>
     </row>
     <row r="9">
@@ -1390,73 +1390,73 @@
         <v>-0.000176296004140697</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.000247172953501453</v>
+        <v>-0.00024715305418978</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.00142173103474857</v>
+        <v>-0.00142172734795746</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.00978178144990675</v>
+        <v>-0.0097817839523316</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.00549462629550711</v>
+        <v>-0.00549462389452588</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00888034004637215</v>
+        <v>0.00888034506160815</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00166469141040078</v>
+        <v>0.00166469777132429</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000150900367416331</v>
+        <v>0.000150903143557586</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.00239432219641449</v>
+        <v>-0.00239432479052659</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.00550384007913622</v>
+        <v>-0.00550383975147484</v>
       </c>
       <c r="R9" t="n">
-        <v>0.000334436248048803</v>
+        <v>0.000334443765876386</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0044036482938608</v>
+        <v>0.00440364184158572</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.00040194217778427</v>
+        <v>-0.000401942790641746</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.00280767504480324</v>
+        <v>-0.00280767660369647</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.00274700824342</v>
+        <v>-0.00274701679022749</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00159271608040174</v>
+        <v>-0.00159270975450247</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.00276119599951699</v>
+        <v>-0.00276119230104613</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.00620656087563279</v>
+        <v>-0.00620655153635558</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.00676759479216884</v>
+        <v>-0.00676759505909545</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.000916002912502728</v>
+        <v>0.000916007587861219</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.00468813251717009</v>
+        <v>-0.00468813134241709</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.00283891491934286</v>
+        <v>-0.00283890157483168</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.000298431530566697</v>
+        <v>0.000298432475462019</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00113934927991503</v>
+        <v>0.00113935022013614</v>
       </c>
     </row>
     <row r="10">
@@ -1485,73 +1485,73 @@
         <v>0.00244268305466985</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.00392042796571418</v>
+        <v>-0.003920439183831</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00198712724430962</v>
+        <v>-0.00198712953946081</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0169705196400684</v>
+        <v>-0.0169705170485318</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0196773645669228</v>
+        <v>-0.0196773663369062</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0103148628728405</v>
+        <v>-0.0103148645566133</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.00308232408369364</v>
+        <v>-0.00308232579092426</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.00731860890158298</v>
+        <v>-0.00731861106965433</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.00429679573932785</v>
+        <v>-0.00429679626618185</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0121156193343426</v>
+        <v>-0.0121156194423789</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.00894759608330676</v>
+        <v>-0.00894759630091485</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003186135381273</v>
+        <v>0.00318613788687006</v>
       </c>
       <c r="T10" t="n">
-        <v>0.00332994664110501</v>
+        <v>0.00332994313772055</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.00128552442735253</v>
+        <v>-0.0012855269760171</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.0519668858068634</v>
+        <v>-0.0519668881309312</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.00344211069525447</v>
+        <v>-0.00344211135227723</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.00192364298681989</v>
+        <v>-0.00192364371832516</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.0146643173733656</v>
+        <v>-0.0146643213995412</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0172668433276306</v>
+        <v>-0.0172668427596834</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.00742709366281541</v>
+        <v>-0.00742709533436553</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.00648461085992983</v>
+        <v>-0.00648461001440322</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.0153516900523648</v>
+        <v>-0.0153516919609206</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.00145733107608023</v>
+        <v>0.0014573287328412</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.00682582971129705</v>
+        <v>0.00682583206534565</v>
       </c>
     </row>
     <row r="11">
@@ -1580,73 +1580,73 @@
         <v>-0.000461081725680892</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0030637249210262</v>
+        <v>-0.00306370329599706</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0000447277866263016</v>
+        <v>-0.000044723209708813</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.00232439293395179</v>
+        <v>-0.00232439293813305</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00102046255421621</v>
+        <v>0.00102046192867759</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.00659091726774844</v>
+        <v>-0.00659091365757224</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.000170620008759695</v>
+        <v>-0.000170612613006027</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.00139685499189911</v>
+        <v>-0.00139685384242772</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00397324422642073</v>
+        <v>0.00397323918449768</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.000781520754769968</v>
+        <v>0.000781520605694652</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.000103977053002755</v>
+        <v>-0.000103970513977112</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.00203586854908429</v>
+        <v>-0.00203587908193285</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00158224138326732</v>
+        <v>0.00158224710862844</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00414572873021367</v>
+        <v>0.00414573160358982</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00548359445797811</v>
+        <v>0.00548358759143063</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.000319249589829297</v>
+        <v>-0.000319242561538739</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.00115034536089805</v>
+        <v>-0.00115034012603348</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00169211055715018</v>
+        <v>0.00169211734663215</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.00295783442814178</v>
+        <v>-0.00295783710093595</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.000461998117892295</v>
+        <v>0.000462001684639081</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.000742542345178282</v>
+        <v>0.000742546005818596</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.00305271356194326</v>
+        <v>-0.0030527022608317</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.00511938195370292</v>
+        <v>0.00511938168352542</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.000959337449175124</v>
+        <v>0.000959340484422122</v>
       </c>
     </row>
     <row r="12">
@@ -1675,73 +1675,73 @@
         <v>0.003161127479265</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00443925608078048</v>
+        <v>0.00443923865026925</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00645136152623394</v>
+        <v>0.00645135873162309</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0167752471574384</v>
+        <v>0.0167752488493468</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0143723383208686</v>
+        <v>0.0143723364996318</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0128876989726319</v>
+        <v>0.0128876942274077</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00313684377042015</v>
+        <v>0.00313683733422914</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00663389488838348</v>
+        <v>0.00663389278420728</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00643019170313853</v>
+        <v>0.00643019471052886</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0143649621470339</v>
+        <v>0.0143649616003258</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00905099821275817</v>
+        <v>0.00905098817200753</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.00441326451114708</v>
+        <v>-0.00441325971230488</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00539835638252232</v>
+        <v>0.00539836253765121</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0116152926322941</v>
+        <v>0.0116152936520133</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0545708394338082</v>
+        <v>0.0545708357122364</v>
       </c>
       <c r="W12" t="n">
-        <v>0.00486421778357953</v>
+        <v>0.00486421588603456</v>
       </c>
       <c r="X12" t="n">
-        <v>0.00983180129164856</v>
+        <v>0.00983180121186196</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0166141820974931</v>
+        <v>0.0166141819520501</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0183174259526718</v>
+        <v>0.0183174255485215</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00679899837900977</v>
+        <v>0.00679899540409613</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.00911490766359039</v>
+        <v>0.00911490515344658</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0150348979017119</v>
+        <v>0.0150348985171649</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.00184255653182869</v>
+        <v>-0.00184255743846188</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.00532523867733072</v>
+        <v>-0.00532524300876632</v>
       </c>
     </row>
     <row r="13">
@@ -1770,73 +1770,73 @@
         <v>-0.00121721574913269</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00412791478795481</v>
+        <v>0.00412792151072176</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00193441940789091</v>
+        <v>0.00193442041209253</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.00182930474039143</v>
+        <v>-0.00182930705237847</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00489835597422345</v>
+        <v>0.00489835810102728</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00161379277218571</v>
+        <v>0.00161379485781434</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0034268749033034</v>
+        <v>0.00342687639002442</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00674555048648384</v>
+        <v>0.00674555234017665</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.000519604454129952</v>
+        <v>-0.000519603390710339</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00342032984367085</v>
+        <v>0.00342033000169089</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.000480466822682769</v>
+        <v>-0.000480464572349104</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.00940496207409625</v>
+        <v>-0.00940496128869274</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.000347074895078781</v>
+        <v>-0.000347078994179526</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0053237600264402</v>
+        <v>-0.00532376131608502</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.00059293026729061</v>
+        <v>-0.000592927574105467</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00219348091770449</v>
+        <v>0.00219348083058018</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.00296708012073785</v>
+        <v>-0.00296708082894888</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.00075589740585523</v>
+        <v>0.000755898449724322</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.000640579483947759</v>
+        <v>0.000640580633796932</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00452599414595622</v>
+        <v>0.00452599601416199</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.000449003462339463</v>
+        <v>0.000449003072450316</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0065371519389133</v>
+        <v>0.00653715382103133</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.00205471920900484</v>
+        <v>0.00205472091527376</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.000695067736206449</v>
+        <v>-0.000695069616352563</v>
       </c>
     </row>
     <row r="14">
@@ -1865,73 +1865,73 @@
         <v>0.00189077356466378</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00300138208081433</v>
+        <v>0.00300137694538708</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00153165516097203</v>
+        <v>0.00153165406906475</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000513551833559148</v>
+        <v>0.000513551337759429</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00121862415615549</v>
+        <v>0.00121862479664576</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00095287333620411</v>
+        <v>0.000952872810342849</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00136905416152512</v>
+        <v>0.00136905247176338</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0036120161942147</v>
+        <v>0.00361201628541029</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00169898012727073</v>
+        <v>0.00169898252152323</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00774233289655307</v>
+        <v>0.00774233274089407</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.000851326384819322</v>
+        <v>-0.000851327879980524</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.0189252854189175</v>
+        <v>-0.0189252813301105</v>
       </c>
       <c r="T14" t="n">
-        <v>0.00685963548774743</v>
+        <v>0.00685963131047444</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00361296113597975</v>
+        <v>0.00361295696097449</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.00432376750005424</v>
+        <v>-0.00432377544981232</v>
       </c>
       <c r="W14" t="n">
-        <v>0.00214679183282169</v>
+        <v>0.00214679173110561</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00433971458275577</v>
+        <v>0.00433971408697684</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.000534081745194358</v>
+        <v>0.000534083964176247</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.00302262087180001</v>
+        <v>0.00302262244034045</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.00210667595354395</v>
+        <v>0.00210667645316061</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.00337676382332935</v>
+        <v>-0.00337676566390717</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.00633815935581515</v>
+        <v>0.00633816412731419</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.00563654794297834</v>
+        <v>-0.00563654718872334</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.00033776497133759</v>
+        <v>-0.000337767719603895</v>
       </c>
     </row>
     <row r="15">
@@ -1960,73 +1960,73 @@
         <v>0.0114292841357537</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003826975854159</v>
+        <v>0.00382697912626855</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00372453051294483</v>
+        <v>0.00372453143381811</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0019891627483235</v>
+        <v>-0.00198916332895601</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0078096686919941</v>
+        <v>-0.00780966768667262</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0113665749434773</v>
+        <v>0.0113665768430548</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00603505358895379</v>
+        <v>0.00603505582752832</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00188706575473124</v>
+        <v>0.00188706634646062</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00223878160973747</v>
+        <v>0.00223878051599155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00108939964699593</v>
+        <v>0.00108939937598675</v>
       </c>
       <c r="R15" t="n">
-        <v>0.00662723951466319</v>
+        <v>0.00662724079656192</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.00133676543247114</v>
+        <v>-0.00133676876725698</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0046408414239138</v>
+        <v>0.00464084453728262</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0046018212119293</v>
+        <v>0.00460182130376378</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.00560576825926061</v>
+        <v>-0.00560577135792499</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.00200802631250862</v>
+        <v>-0.00200802435897991</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.00221771881190198</v>
+        <v>-0.00221771774571457</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.00445948722184191</v>
+        <v>-0.00445948540485157</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.0057996035371495</v>
+        <v>-0.00579960267712215</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00268753048629261</v>
+        <v>0.00268753124210586</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0000739230478005912</v>
+        <v>0.0000739229584201798</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.00100071372321332</v>
+        <v>-0.00100071116894014</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.00609797698410702</v>
+        <v>0.00609797666560958</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0062214069311495</v>
+        <v>0.00622140873167026</v>
       </c>
     </row>
     <row r="16">
@@ -2055,73 +2055,73 @@
         <v>0.00185360636060625</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00093314598493537</v>
+        <v>0.000933136686908437</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00290981611647512</v>
+        <v>0.00290981476339343</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0122027560839928</v>
+        <v>0.012202758054394</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00694982322856737</v>
+        <v>0.00694982116489506</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00250744764191471</v>
+        <v>0.00250744456422024</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00182664186079386</v>
+        <v>0.00182663871390545</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00367301582078498</v>
+        <v>0.00367301393891875</v>
       </c>
       <c r="P16" t="n">
-        <v>0.00362070206951103</v>
+        <v>0.00362070232334508</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00712938646090739</v>
+        <v>0.00712938616923642</v>
       </c>
       <c r="R16" t="n">
-        <v>0.00379312630376851</v>
+        <v>0.0037931208464691</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.00576605019428489</v>
+        <v>-0.00576605011332412</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00266734060593311</v>
+        <v>0.00266734756130145</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00554459814550368</v>
+        <v>0.00554460049508705</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0212202546316293</v>
+        <v>0.0212202549520967</v>
       </c>
       <c r="W16" t="n">
-        <v>0.00260580941041695</v>
+        <v>0.00260581080645373</v>
       </c>
       <c r="X16" t="n">
-        <v>0.00634076950883095</v>
+        <v>0.00634077191730054</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.00873714619235729</v>
+        <v>0.00873714545269104</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.00873550722111301</v>
+        <v>0.00873550436180151</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.00204076195915843</v>
+        <v>0.00204076124207121</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0033545086056266</v>
+        <v>0.00335451053007174</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.00855665303101464</v>
+        <v>0.00855665566760152</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000466717327329607</v>
+        <v>0.000466716229727587</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.00102814950122501</v>
+        <v>-0.00102815308813548</v>
       </c>
     </row>
     <row r="17">
@@ -2150,73 +2150,73 @@
         <v>-0.00866072629385372</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.00326562153831793</v>
+        <v>-0.00326560793125421</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.00396662564821079</v>
+        <v>-0.00396662433794363</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00143862595842137</v>
+        <v>-0.00143862772456233</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00193024934892137</v>
+        <v>0.00193025109471216</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.00237626555403447</v>
+        <v>-0.00237626302025265</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.000161536146749946</v>
+        <v>-0.000161533314248598</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.00325886055666842</v>
+        <v>-0.00325885896408759</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.00337641307222333</v>
+        <v>-0.00337641344865607</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.00223594272312466</v>
+        <v>-0.00223594249320662</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00172748772352253</v>
+        <v>0.00172749162144093</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00219437254621096</v>
+        <v>-0.00219437522501087</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.00305068384366815</v>
+        <v>-0.00305068415328723</v>
       </c>
       <c r="U17" t="n">
-        <v>0.004057428855473</v>
+        <v>0.00405742823812411</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.00924258733329599</v>
+        <v>-0.00924258669776322</v>
       </c>
       <c r="W17" t="n">
-        <v>0.00166220797574376</v>
+        <v>0.00166221142268003</v>
       </c>
       <c r="X17" t="n">
-        <v>0.00198625360344635</v>
+        <v>0.0019862559237115</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.00512830220491586</v>
+        <v>0.00512830507831713</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.00454051055966902</v>
+        <v>0.00454050987705174</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.00374591068911464</v>
+        <v>0.00374591398223692</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.000752590848403733</v>
+        <v>-0.00075258860645927</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.000867608835141966</v>
+        <v>-0.000867602741914561</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.00068266971340885</v>
+        <v>-0.000682669234262447</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.00063734464248423</v>
+        <v>-0.000637345437983224</v>
       </c>
     </row>
     <row r="18">
@@ -2245,73 +2245,73 @@
         <v>-0.00319939697565974</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.00206470264196703</v>
+        <v>-0.00206470540616001</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.000736335003319464</v>
+        <v>-0.000736336042246862</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.000560968949388114</v>
+        <v>-0.000560967883847981</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000295964898801033</v>
+        <v>0.000295963860782411</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.000201098178164286</v>
+        <v>-0.000201099773716515</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.000437624580013746</v>
+        <v>-0.000437626488988162</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.00140785388737686</v>
+        <v>-0.00140785492390615</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.00246125764739752</v>
+        <v>-0.00246125782072053</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.00243478250335897</v>
+        <v>-0.00243478233738303</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.00172673492037922</v>
+        <v>-0.00172673678034688</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.00572318422379046</v>
+        <v>-0.00572318429569389</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.000409880364074743</v>
+        <v>-0.000409877383264761</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00488943946683698</v>
+        <v>0.0048894393266867</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.0079389033153987</v>
+        <v>-0.00793890491078215</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00198428206378368</v>
+        <v>0.00198428378274186</v>
       </c>
       <c r="X18" t="n">
-        <v>0.00241657770874693</v>
+        <v>0.00241657954837083</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.000525860342408177</v>
+        <v>-0.000525860075212645</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.00606241567496787</v>
+        <v>0.00606241550200793</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.000816096662985716</v>
+        <v>0.000816095592591096</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.00697094072961884</v>
+        <v>-0.00697094045268233</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.00397146044470196</v>
+        <v>0.00397146288993455</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.000212915141718044</v>
+        <v>-0.000212916134649593</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.000229252364002636</v>
+        <v>-0.000229254170965336</v>
       </c>
     </row>
     <row r="19">
@@ -2340,73 +2340,73 @@
         <v>-0.00251387391748873</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000473115864047653</v>
+        <v>0.000473109870426053</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.00124562358774989</v>
+        <v>-0.00124562564439218</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0154066308427441</v>
+        <v>-0.0154066307151686</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0000496772209147209</v>
+        <v>-0.0000496778094113482</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.00834471163247608</v>
+        <v>-0.00834471441077132</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.00449429124966626</v>
+        <v>-0.0044942960316667</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.00226434956069368</v>
+        <v>-0.00226435017663305</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.00105763912275939</v>
+        <v>-0.00105763584425394</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.003162963321963</v>
+        <v>-0.00316296334045362</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.00903779854937817</v>
+        <v>-0.00903780313730211</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0158928106058228</v>
+        <v>-0.015892802989484</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.00114401345909284</v>
+        <v>-0.00114401860794164</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.000596498262576503</v>
+        <v>-0.000596500518935583</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.00576669897098374</v>
+        <v>-0.0057667000230402</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.000902871883659187</v>
+        <v>-0.000902878599428869</v>
       </c>
       <c r="X19" t="n">
-        <v>0.000751352591795752</v>
+        <v>0.000751347435301201</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.00294465615414454</v>
+        <v>-0.00294465988687771</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.00128028119017206</v>
+        <v>-0.00128027867741086</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.00350533255122827</v>
+        <v>-0.00350533588702243</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.00606724721165677</v>
+        <v>-0.00606725203034336</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.00564699090817133</v>
+        <v>-0.00564700112781205</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.00530093148385022</v>
+        <v>-0.00530093115748506</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.00407670181369524</v>
+        <v>-0.00407670113193476</v>
       </c>
     </row>
     <row r="20">
@@ -2435,73 +2435,73 @@
         <v>-0.000737980000745708</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.000249113912067887</v>
+        <v>-0.000249101227142255</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000976702021164969</v>
+        <v>0.000976705650483176</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0082400635501424</v>
+        <v>0.00824006424933831</v>
       </c>
       <c r="L20" t="n">
-        <v>0.010138522234033</v>
+        <v>0.0101385208615089</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0052619916156516</v>
+        <v>-0.00526198969764792</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0052748566623364</v>
+        <v>-0.00527485111133947</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00201340155921806</v>
+        <v>0.00201340218161441</v>
       </c>
       <c r="P20" t="n">
-        <v>0.00720442027321258</v>
+        <v>0.00720441705344638</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0127374182887655</v>
+        <v>0.0127374183333175</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0052359169823887</v>
+        <v>-0.00523591088976649</v>
       </c>
       <c r="S20" t="n">
-        <v>0.00348357167582056</v>
+        <v>0.00348356613799532</v>
       </c>
       <c r="T20" t="n">
-        <v>0.00366095160515171</v>
+        <v>0.00366095018001904</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.00126891939747262</v>
+        <v>-0.00126891808662828</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0243784773084066</v>
+        <v>0.024378469626263</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.000820857779318706</v>
+        <v>-0.000820856990875884</v>
       </c>
       <c r="X20" t="n">
-        <v>0.000922110118058866</v>
+        <v>0.000922110193652672</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.00571099901717805</v>
+        <v>0.00571100300240194</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0179846186279068</v>
+        <v>0.0179846194957864</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.00336761484661238</v>
+        <v>0.00336761462847553</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.00183865915794673</v>
+        <v>0.00183865817240032</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.000518766792305333</v>
+        <v>-0.000518765555388818</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.00403866037968892</v>
+        <v>-0.00403865926532025</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.00789970275516186</v>
+        <v>-0.00789969814803776</v>
       </c>
     </row>
     <row r="21">
@@ -2530,73 +2530,73 @@
         <v>0.00144335860395954</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00459309989726548</v>
+        <v>0.00459309329832598</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00202893752609852</v>
+        <v>0.0020289368114561</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00132765694797061</v>
+        <v>0.00132765516764044</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00190452438586345</v>
+        <v>0.00190452628191254</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.00175151491053439</v>
+        <v>-0.00175151420199969</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.00154139301903787</v>
+        <v>-0.00154139368376539</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00181016753790901</v>
+        <v>0.00181016864860285</v>
       </c>
       <c r="P21" t="n">
-        <v>0.00279537925504175</v>
+        <v>0.00279538219356397</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.00591532707971096</v>
+        <v>0.00591532697690735</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0029119933678275</v>
+        <v>0.00291199314752448</v>
       </c>
       <c r="S21" t="n">
-        <v>0.00973122337399326</v>
+        <v>0.00973122811805498</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.000308411951653667</v>
+        <v>-0.000308418212134487</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.00580908385323431</v>
+        <v>-0.00580908522812652</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0145283652183916</v>
+        <v>0.0145283702832353</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.000155815381269464</v>
+        <v>-0.000155820389113123</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.0000420039946007084</v>
+        <v>-0.0000420083876558379</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.000251954591514208</v>
+        <v>0.000251951706361276</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00124029584082648</v>
+        <v>0.00124029765099257</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.000147200797735679</v>
+        <v>-0.000147201044164012</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0034252955802343</v>
+        <v>0.0034252932723817</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.000577501052892551</v>
+        <v>0.00057749162543571</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.00345186850312295</v>
+        <v>-0.00345186654179253</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.00132890066033656</v>
+        <v>-0.00132890003264344</v>
       </c>
     </row>
     <row r="22">
@@ -2625,73 +2625,73 @@
         <v>0.000916617161475103</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.00189024664838235</v>
+        <v>-0.00189024333141458</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.00118263577873572</v>
+        <v>-0.00118263654820482</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00264532732569962</v>
+        <v>0.00264532751979444</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000784724351691099</v>
+        <v>0.000784724160894784</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0114283903455869</v>
+        <v>0.011428389009464</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00562833792180359</v>
+        <v>0.00562833558257944</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.000565175219864636</v>
+        <v>-0.000565175788489123</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0039870940441396</v>
+        <v>-0.00398709404835782</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.0047227038490339</v>
+        <v>-0.00472270385301721</v>
       </c>
       <c r="R22" t="n">
-        <v>0.00540266570780368</v>
+        <v>0.0054026617151115</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0137337455827901</v>
+        <v>0.0137337453099908</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.00483409250882269</v>
+        <v>-0.00483408683231085</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00461690547923792</v>
+        <v>0.00461690805992132</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0157852210720554</v>
+        <v>-0.0157852110718157</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00353176501096743</v>
+        <v>0.00353176562705301</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00273111931365822</v>
+        <v>0.00273112082217237</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.00931615840028901</v>
+        <v>0.00931615307417074</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.00418249597815544</v>
+        <v>-0.00418249928643089</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.00296239183941486</v>
+        <v>0.00296239275031222</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.00135106166415183</v>
+        <v>0.00135106561406136</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.00620432324550282</v>
+        <v>0.00620432178870112</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.00749638053403895</v>
+        <v>0.00749638035105801</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.00306722720336172</v>
+        <v>0.00306722219724224</v>
       </c>
     </row>
     <row r="23">
@@ -2720,73 +2720,73 @@
         <v>0.00225217445254933</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00114450641193079</v>
+        <v>0.00114450710739356</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00342755010616477</v>
+        <v>0.00342754985287238</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.00388739458393396</v>
+        <v>-0.00388739338810501</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00267335704794814</v>
+        <v>0.00267335551051205</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0102351874838083</v>
+        <v>0.0102351853942558</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00560077011148542</v>
+        <v>0.00560076775418976</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0077422833828468</v>
+        <v>0.00774228231457869</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.000671091475601318</v>
+        <v>-0.000671091648590872</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00606272282467342</v>
+        <v>0.00606272274516875</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00181342824862815</v>
+        <v>0.00181342305043626</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.00351918464910372</v>
+        <v>-0.00351918654322338</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00445858535158273</v>
+        <v>0.00445859443639616</v>
       </c>
       <c r="U23" t="n">
-        <v>0.00282379611577779</v>
+        <v>0.00282379780831031</v>
       </c>
       <c r="V23" t="n">
-        <v>0.00410981600802906</v>
+        <v>0.00410981661148345</v>
       </c>
       <c r="W23" t="n">
-        <v>0.00357418533046755</v>
+        <v>0.00357419080350053</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00181608897231569</v>
+        <v>0.00181609452865464</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0026510950385627</v>
+        <v>0.00265109585061253</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.00498484277585593</v>
+        <v>0.00498484044531577</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.00840856339615233</v>
+        <v>0.00840856371415951</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.00391947863244321</v>
+        <v>0.00391948169539855</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.00519422838492112</v>
+        <v>0.00519423836742388</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.000898569744342867</v>
+        <v>0.000898567152998184</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.000241889465533696</v>
+        <v>-0.000241893311904897</v>
       </c>
     </row>
     <row r="24">
@@ -2815,73 +2815,73 @@
         <v>-0.00431340053139341</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.00215752031397049</v>
+        <v>-0.00215752194543052</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0000126636903178411</v>
+        <v>-0.0000126639351767896</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00249758106169134</v>
+        <v>0.00249758181446045</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000512663019866569</v>
+        <v>0.000512662381692175</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00155674932006793</v>
+        <v>0.00155674873392817</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00114278756101951</v>
+        <v>0.00114278727501507</v>
       </c>
       <c r="O24" t="n">
-        <v>0.000462999031928435</v>
+        <v>0.000462998419830936</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.00127104478704118</v>
+        <v>-0.00127104546284614</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.00082557714865537</v>
+        <v>0.000825577225037535</v>
       </c>
       <c r="R24" t="n">
-        <v>0.00183248499067878</v>
+        <v>0.00183248447681749</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.00392163431050788</v>
+        <v>-0.00392163611375897</v>
       </c>
       <c r="T24" t="n">
-        <v>0.00148048776665049</v>
+        <v>0.00148049135097216</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00430137956321609</v>
+        <v>0.00430137990422911</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0201768388746731</v>
+        <v>0.0201768319767761</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0000517725762638022</v>
+        <v>0.0000517752111531038</v>
       </c>
       <c r="X24" t="n">
-        <v>0.00104256351904891</v>
+        <v>0.00104256582822563</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.00150643296012043</v>
+        <v>0.00150643790017282</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.00369207120722669</v>
+        <v>-0.003692072528779</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.0019432572784383</v>
+        <v>-0.00194325670795557</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.00108168851975388</v>
+        <v>0.0010816886427436</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0040777485692718</v>
+        <v>0.00407775596910896</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.000227203241065025</v>
+        <v>-0.000227203670498421</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.000813373679301716</v>
+        <v>-0.000813375323665716</v>
       </c>
     </row>
     <row r="25">
@@ -2910,73 +2910,73 @@
         <v>-0.000364964352934091</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002619361219654</v>
+        <v>0.00261937002004056</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000403758261296204</v>
+        <v>0.000403760826120199</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.000518164259052544</v>
+        <v>-0.000518166953265536</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000245372916975919</v>
+        <v>0.000245375626021814</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00226084423352562</v>
+        <v>0.0022608485600545</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00134495202124085</v>
+        <v>0.00134495700001662</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00125869500274298</v>
+        <v>0.00125869757339925</v>
       </c>
       <c r="P25" t="n">
-        <v>0.00161405580791855</v>
+        <v>0.00161405479080917</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.000287220310150911</v>
+        <v>0.000287220404131684</v>
       </c>
       <c r="R25" t="n">
-        <v>0.00195131237428626</v>
+        <v>0.00195131857086008</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.012005067648349</v>
+        <v>-0.0120050710650634</v>
       </c>
       <c r="T25" t="n">
-        <v>0.00267527320249496</v>
+        <v>0.00267527014335476</v>
       </c>
       <c r="U25" t="n">
-        <v>0.000776390362022677</v>
+        <v>0.000776387473228742</v>
       </c>
       <c r="V25" t="n">
-        <v>0.00360648683759171</v>
+        <v>0.00360647822551325</v>
       </c>
       <c r="W25" t="n">
-        <v>0.00118843498222017</v>
+        <v>0.00118844055383995</v>
       </c>
       <c r="X25" t="n">
-        <v>0.00267599938572914</v>
+        <v>0.00267600253664539</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.00376296613718754</v>
+        <v>0.00376297419080351</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.00277636661023033</v>
+        <v>0.00277636579083772</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.000956804039403028</v>
+        <v>0.000956809266914571</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0000936369976057875</v>
+        <v>0.0000936387664876187</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.00248019917551138</v>
+        <v>0.00248020967576598</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.00204495761171521</v>
+        <v>-0.00204495592834564</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.000527711651500398</v>
+        <v>0.000527711269403794</v>
       </c>
     </row>
     <row r="26">
@@ -3005,73 +3005,73 @@
         <v>0.00181131129334203</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00284947252011997</v>
+        <v>0.00284946417403383</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00283701379795619</v>
+        <v>0.00283701172701243</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.00079101113746748</v>
+        <v>-0.000791010831078155</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.000508599682821976</v>
+        <v>-0.000508599676804969</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.000573771050456492</v>
+        <v>-0.000573772631041285</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00273431100552286</v>
+        <v>0.00273430805138872</v>
       </c>
       <c r="O26" t="n">
-        <v>0.000749437872581894</v>
+        <v>0.00074943706897058</v>
       </c>
       <c r="P26" t="n">
-        <v>0.00177694385668473</v>
+        <v>0.00177694593771272</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.000851399136141975</v>
+        <v>-0.00085139950749593</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.00265320084541129</v>
+        <v>-0.00265320369453314</v>
       </c>
       <c r="S26" t="n">
-        <v>0.00397588143467451</v>
+        <v>0.00397588787881812</v>
       </c>
       <c r="T26" t="n">
-        <v>0.00344179948270456</v>
+        <v>0.0034417929563439</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0052024554264864</v>
+        <v>0.00520245214768978</v>
       </c>
       <c r="V26" t="n">
-        <v>0.00606674564537304</v>
+        <v>0.0060667366464482</v>
       </c>
       <c r="W26" t="n">
-        <v>0.00385434066717714</v>
+        <v>0.00385433666953995</v>
       </c>
       <c r="X26" t="n">
-        <v>0.00503906253165878</v>
+        <v>0.00503905905390878</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.00557740939493651</v>
+        <v>0.00557741058626525</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.00444651518676994</v>
+        <v>0.00444651658232669</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.00340589081923491</v>
+        <v>0.00340588937916928</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.000947960496527758</v>
+        <v>0.000947956711890663</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.00817722346276979</v>
+        <v>0.00817722292992158</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.00154590661745734</v>
+        <v>0.00154590801370584</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.0000902951873029971</v>
+        <v>-0.0000902974594502012</v>
       </c>
     </row>
     <row r="27">
@@ -3100,73 +3100,73 @@
         <v>-0.00491723876161609</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.00301836672406586</v>
+        <v>-0.00301836178849707</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00200919572569401</v>
+        <v>0.00200919752550649</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00785924002143192</v>
+        <v>0.00785924174469384</v>
       </c>
       <c r="L27" t="n">
-        <v>0.010243072847578</v>
+        <v>0.0102430704859998</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0108720756647723</v>
+        <v>0.0108720746063568</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00367895953593474</v>
+        <v>0.00367896020313069</v>
       </c>
       <c r="O27" t="n">
-        <v>0.00608339144706819</v>
+        <v>0.00608339045743728</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.00222320661818418</v>
+        <v>-0.00222321073055749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.00410817588892808</v>
+        <v>0.00410817622038482</v>
       </c>
       <c r="R27" t="n">
-        <v>0.00390327225151697</v>
+        <v>0.00390327020167753</v>
       </c>
       <c r="S27" t="n">
-        <v>0.00788291816523568</v>
+        <v>0.00788290871869847</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.00346791292982941</v>
+        <v>-0.00346789658850021</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00351555320457301</v>
+        <v>0.00351556021412718</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0297414723077079</v>
+        <v>0.0297414784482307</v>
       </c>
       <c r="W27" t="n">
-        <v>0.00165406989283806</v>
+        <v>0.00165407625001402</v>
       </c>
       <c r="X27" t="n">
-        <v>0.000794174880614481</v>
+        <v>0.000794181472586857</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.00726556515962547</v>
+        <v>0.00726556563453836</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.000760553550513539</v>
+        <v>-0.000760558344734574</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.000166086696549318</v>
+        <v>0.000166087256019084</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0108960396925449</v>
+        <v>0.010896044830876</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.00516753645200658</v>
+        <v>0.00516754365954194</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.0010766076264177</v>
+        <v>-0.00107661042208731</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.00339811132688561</v>
+        <v>-0.00339811225575032</v>
       </c>
     </row>
     <row r="28">
@@ -3195,73 +3195,73 @@
         <v>0.00498107413387906</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00273565013337238</v>
+        <v>0.00273563382257176</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00149624484527505</v>
+        <v>0.00149624184629157</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.000217050624528417</v>
+        <v>-0.000217049812909837</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.00233239303235053</v>
+        <v>-0.00233239372307868</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.00152445967997268</v>
+        <v>-0.00152446305734676</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.00101733734430302</v>
+        <v>-0.00101734272234999</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.000818980876393677</v>
+        <v>-0.000818982212303732</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00420641990908995</v>
+        <v>0.0042064237707024</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.00443537167377425</v>
+        <v>0.00443537135880178</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.0000612585565896101</v>
+        <v>-0.000061264581431334</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.0109009673518463</v>
+        <v>-0.0109009595062197</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0061750390739408</v>
+        <v>0.0061750354862775</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00270557983814979</v>
+        <v>0.00270557677325585</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.00122377125530881</v>
+        <v>-0.00122377394030401</v>
       </c>
       <c r="W28" t="n">
-        <v>0.00187346595405056</v>
+        <v>0.00187346282021992</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00403246561707404</v>
+        <v>0.0040324635730925</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.000996157012199022</v>
+        <v>0.000996154476780145</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0042148501544884</v>
+        <v>0.00421485125736932</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.000617516606940435</v>
+        <v>0.00061751473419605</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.0016956770744834</v>
+        <v>-0.00169567919174109</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.00166340759131232</v>
+        <v>0.00166340494247048</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.000792452387261395</v>
+        <v>0.00079245209270196</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.00130894021754471</v>
+        <v>0.00130893735045678</v>
       </c>
     </row>
     <row r="29">
@@ -3290,73 +3290,73 @@
         <v>-0.0113890216652364</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.00786667922131973</v>
+        <v>-0.00786666125193975</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.00381042593749561</v>
+        <v>-0.00381042344441123</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.00769424512815392</v>
+        <v>-0.00769424368288007</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00041977301087166</v>
+        <v>0.00041977105040998</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00858979869361551</v>
+        <v>0.00858979896507428</v>
       </c>
       <c r="N29" t="n">
-        <v>0.000234064244546578</v>
+        <v>0.000234066830388156</v>
       </c>
       <c r="O29" t="n">
-        <v>0.00212049447044153</v>
+        <v>0.00212049417467435</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.00416646046481273</v>
+        <v>-0.00416646390406351</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.00737996231293854</v>
+        <v>-0.00737996217830818</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.00178849986360493</v>
+        <v>-0.00178849866920584</v>
       </c>
       <c r="S29" t="n">
-        <v>0.014706395502389</v>
+        <v>0.0147063889059169</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.00599361806978348</v>
+        <v>-0.00599361079324632</v>
       </c>
       <c r="U29" t="n">
-        <v>0.000647632652050949</v>
+        <v>0.000647636821645699</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.00658772396017356</v>
+        <v>-0.0065877209221482</v>
       </c>
       <c r="W29" t="n">
-        <v>0.00203996346834198</v>
+        <v>0.00203996813657055</v>
       </c>
       <c r="X29" t="n">
-        <v>0.000574055710274636</v>
+        <v>0.000574060282811421</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.00128642131483733</v>
+        <v>0.00128642221680782</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.00364361994582167</v>
+        <v>0.00364361693741586</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.00353468421541512</v>
+        <v>0.00353468468080303</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.00863577884808406</v>
+        <v>-0.00863577506675994</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.000201087504906009</v>
+        <v>-0.000201082989062905</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.00356958783786923</v>
+        <v>0.00356958664536892</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.0000441419890393818</v>
+        <v>-0.0000441410023205815</v>
       </c>
     </row>
     <row r="30">
@@ -3385,73 +3385,73 @@
         <v>0.00281957178645644</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00394058367562979</v>
+        <v>0.00394058092648</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00229562680632775</v>
+        <v>0.00229562737794892</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0105448542383945</v>
+        <v>0.0105448535828005</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00652790303402458</v>
+        <v>0.00652790362328383</v>
       </c>
       <c r="M30" t="n">
-        <v>0.008886240296378</v>
+        <v>0.00888624079507288</v>
       </c>
       <c r="N30" t="n">
-        <v>0.000118404239986532</v>
+        <v>0.000118404736702594</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00491405020378482</v>
+        <v>0.00491405085528151</v>
       </c>
       <c r="P30" t="n">
-        <v>0.00452864535288354</v>
+        <v>0.00452864600620391</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.00924413889232254</v>
+        <v>0.00924413891459531</v>
       </c>
       <c r="R30" t="n">
-        <v>0.00240477178106442</v>
+        <v>0.00240477221536588</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.0112504226729083</v>
+        <v>-0.0112504226472431</v>
       </c>
       <c r="T30" t="n">
-        <v>0.002690043945621</v>
+        <v>0.0026900434578606</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00221219050419054</v>
+        <v>0.00221218963666256</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0150136915233712</v>
+        <v>0.0150136896169547</v>
       </c>
       <c r="W30" t="n">
-        <v>0.00214578258352964</v>
+        <v>0.00214578355403515</v>
       </c>
       <c r="X30" t="n">
-        <v>0.00291460624328505</v>
+        <v>0.00291460688290447</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.00559653309037646</v>
+        <v>0.00559653457314436</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.00930303893120914</v>
+        <v>0.00930303903862923</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.00147078351510725</v>
+        <v>0.00147078468069686</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0016833577403839</v>
+        <v>0.00168335787638174</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.00451909757069988</v>
+        <v>0.00451909967344867</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.00343496078175829</v>
+        <v>-0.00343496054616766</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.00222979459402394</v>
+        <v>-0.00222979481302716</v>
       </c>
     </row>
     <row r="31">
@@ -3480,73 +3480,73 @@
         <v>0.00159481632333709</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00186348955393257</v>
+        <v>0.00186348177637747</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00345333581342197</v>
+        <v>0.00345333481387272</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0179573785277806</v>
+        <v>0.0179573789425344</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00590781130475608</v>
+        <v>0.00590781121170705</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0014952589669362</v>
+        <v>0.00149525805093413</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00377354662204374</v>
+        <v>0.00377354561050348</v>
       </c>
       <c r="O31" t="n">
-        <v>0.000534400952147887</v>
+        <v>0.000534400169947215</v>
       </c>
       <c r="P31" t="n">
-        <v>0.00401989890055524</v>
+        <v>0.00401989901168304</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.00808597423001665</v>
+        <v>0.00808597395970271</v>
       </c>
       <c r="R31" t="n">
-        <v>0.00185225220694481</v>
+        <v>0.00185225136672402</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0194866558922653</v>
+        <v>-0.0194866546937989</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0110294402227674</v>
+        <v>0.0110294387891784</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0104556316530596</v>
+        <v>0.0104556272352471</v>
       </c>
       <c r="V31" t="n">
-        <v>0.00838154372535322</v>
+        <v>0.00838152657790822</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0032014357390409</v>
+        <v>0.0032014397394957</v>
       </c>
       <c r="X31" t="n">
-        <v>0.00802612133901511</v>
+        <v>0.00802612407490264</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.00660628635052318</v>
+        <v>0.00660629341447824</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.00809093041526199</v>
+        <v>0.00809093003593983</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.00479859091508489</v>
+        <v>-0.00479859023659082</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.00384554089410165</v>
+        <v>0.00384554005367103</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0149947303696881</v>
+        <v>0.0149947384349272</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.00132808377887794</v>
+        <v>-0.00132808335480148</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.000596172859848884</v>
+        <v>0.000596170405502477</v>
       </c>
     </row>
     <row r="32">
@@ -3575,73 +3575,73 @@
         <v>0.00527095450362825</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00439852060671253</v>
+        <v>0.00439851199377596</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00187338351015278</v>
+        <v>0.00187338087208973</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00264471775866901</v>
+        <v>0.0026447178788007</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00315483811776933</v>
+        <v>0.00315483816030687</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00912974402332599</v>
+        <v>0.00912974128118296</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0031194037821206</v>
+        <v>0.00311939861503246</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0041652677897717</v>
+        <v>0.00416526694673563</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0018440155696001</v>
+        <v>0.0018440193675913</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.00376854566124515</v>
+        <v>0.00376854523154112</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.0021380293157549</v>
+        <v>-0.00213803534572783</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0144692604088964</v>
+        <v>0.0144692701900089</v>
       </c>
       <c r="T32" t="n">
-        <v>0.00443023025643519</v>
+        <v>0.00443022225547591</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.00471631144826539</v>
+        <v>-0.0047163156337355</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.00949579614849129</v>
+        <v>-0.00949579756669544</v>
       </c>
       <c r="W32" t="n">
-        <v>0.00359291282414038</v>
+        <v>0.00359290722499335</v>
       </c>
       <c r="X32" t="n">
-        <v>0.00171958538486877</v>
+        <v>0.00171958079187293</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.00111354044778572</v>
+        <v>0.00111353607685012</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.00408678270862127</v>
+        <v>0.00408678578416017</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.00286374085395432</v>
+        <v>0.00286373767750795</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.00641849090730111</v>
+        <v>0.00641848671772622</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.00912506767770273</v>
+        <v>0.00912506233099511</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.000559932713090793</v>
+        <v>-0.000559932076649375</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.000756359452534682</v>
+        <v>-0.000756362019895798</v>
       </c>
     </row>
     <row r="33">
@@ -3670,73 +3670,73 @@
         <v>0.00259991618660866</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00173689756395538</v>
+        <v>0.00173691460964015</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00158790189652307</v>
+        <v>0.00158790516389648</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00201384571526774</v>
+        <v>0.0020138441692459</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00377418935808866</v>
+        <v>0.00377419068062982</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00187374323918613</v>
+        <v>0.00187374717672801</v>
       </c>
       <c r="N33" t="n">
-        <v>0.000237157337461599</v>
+        <v>0.000237163242473939</v>
       </c>
       <c r="O33" t="n">
-        <v>0.00115167175390912</v>
+        <v>0.00115167376179459</v>
       </c>
       <c r="P33" t="n">
-        <v>0.00240706125709534</v>
+        <v>0.00240705895625711</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.00487779886352929</v>
+        <v>0.00487779898261161</v>
       </c>
       <c r="R33" t="n">
-        <v>0.00130210604115121</v>
+        <v>0.00130211272019688</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0109724625718366</v>
+        <v>0.0109724570969876</v>
       </c>
       <c r="T33" t="n">
-        <v>0.000998732199163193</v>
+        <v>0.000998731014732514</v>
       </c>
       <c r="U33" t="n">
-        <v>0.000339035239898263</v>
+        <v>0.000339035206795042</v>
       </c>
       <c r="V33" t="n">
-        <v>0.00925369306552772</v>
+        <v>0.00925368777103732</v>
       </c>
       <c r="W33" t="n">
-        <v>0.00184550917452719</v>
+        <v>0.00184551337101</v>
       </c>
       <c r="X33" t="n">
-        <v>0.00198379055946358</v>
+        <v>0.0019837930501093</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.00351520057251685</v>
+        <v>0.0035152073371531</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.00433534242361609</v>
+        <v>0.00433534146693451</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.00296513919841705</v>
+        <v>0.00296514296287241</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.00410778856421018</v>
+        <v>0.00410779014133758</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.00345582873530537</v>
+        <v>0.0034558385803502</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.000387767987842501</v>
+        <v>0.000387769068931029</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.00159240575711084</v>
+        <v>-0.00159240458238998</v>
       </c>
     </row>
     <row r="34">
@@ -3765,73 +3765,73 @@
         <v>-0.00246514102084539</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000444618705542005</v>
+        <v>0.000444616779054883</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.000539013302206202</v>
+        <v>-0.000539016455300807</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0109268230646183</v>
+        <v>-0.0109268228345174</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0012302820330497</v>
+        <v>0.00123028183047823</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00566769451982707</v>
+        <v>0.00566769112731171</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00642861540035441</v>
+        <v>0.00642860892297894</v>
       </c>
       <c r="O34" t="n">
-        <v>0.00359465399940326</v>
+        <v>0.00359465288873445</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.00323828888793428</v>
+        <v>-0.0032382845902361</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.00494749283421138</v>
+        <v>-0.00494749342309486</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.000835310576229195</v>
+        <v>-0.00083531936025498</v>
       </c>
       <c r="S34" t="n">
-        <v>0.00569673357163555</v>
+        <v>0.00569674298169703</v>
       </c>
       <c r="T34" t="n">
-        <v>0.000579038370549341</v>
+        <v>0.000579035275771215</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00985498500347434</v>
+        <v>0.00985498177393839</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.0227637404429456</v>
+        <v>-0.0227637424150508</v>
       </c>
       <c r="W34" t="n">
-        <v>0.00776646535257645</v>
+        <v>0.00776646103794829</v>
       </c>
       <c r="X34" t="n">
-        <v>0.00992931630045274</v>
+        <v>0.00992931340628375</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0151405363360204</v>
+        <v>0.0151405313308788</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.00352029476971455</v>
+        <v>0.00352029496529146</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.00835176763006092</v>
+        <v>0.0083517662976579</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.00380120136878222</v>
+        <v>0.00380119966324633</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.016286306024827</v>
+        <v>0.0162863026582227</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.00312194493536597</v>
+        <v>0.0031219465897689</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.000737654322063288</v>
+        <v>-0.000737662337109977</v>
       </c>
     </row>
     <row r="35">
@@ -3860,73 +3860,73 @@
         <v>-0.00149646734450171</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.00221313042862974</v>
+        <v>-0.00221311702034993</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.00399624609304752</v>
+        <v>-0.00399624376752364</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.00716344784182001</v>
+        <v>-0.00716344906839956</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.00415385027748661</v>
+        <v>-0.0041538491961857</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.00799115583013838</v>
+        <v>-0.00799115267708942</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.00514124841571821</v>
+        <v>-0.00514124373735763</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.00416258547272476</v>
+        <v>-0.00416258376835217</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.00361312000402381</v>
+        <v>-0.00361312178644724</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.00771175952825704</v>
+        <v>-0.00771175902170097</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.00698387721228395</v>
+        <v>-0.00698386951035906</v>
       </c>
       <c r="S35" t="n">
-        <v>0.04592052947636</v>
+        <v>0.0459205287180628</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.0138675620176449</v>
+        <v>-0.0138675716171164</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0122401552619705</v>
+        <v>-0.0122401519625986</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.00310439672508499</v>
+        <v>-0.00310438569437721</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.00250086654529105</v>
+        <v>-0.00250087545633586</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.0063200715532143</v>
+        <v>-0.00632007929445325</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.00938268916283217</v>
+        <v>-0.00938269208719451</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.00880633043313324</v>
+        <v>-0.00880632883185654</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.007346634425035</v>
+        <v>-0.00734663650749788</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.000391081111771251</v>
+        <v>-0.000391084701841511</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.00133139811794042</v>
+        <v>0.00133138260653399</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.000313209434758098</v>
+        <v>0.000313213534429198</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.00234495656500069</v>
+        <v>-0.00234495168716107</v>
       </c>
     </row>
     <row r="36">
@@ -3955,73 +3955,73 @@
         <v>-0.00118745896665483</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.00248222857927769</v>
+        <v>-0.00248222540357633</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.00201257978673865</v>
+        <v>-0.00201257858722089</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00599985706032062</v>
+        <v>0.00599985779066024</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.00196035354579195</v>
+        <v>-0.00196035410593508</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00406745421514524</v>
+        <v>0.00406745514899807</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.000791491500511172</v>
+        <v>-0.000791489101673419</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.0020478866772061</v>
+        <v>-0.00204788688861758</v>
       </c>
       <c r="P36" t="n">
-        <v>0.00100602203530639</v>
+        <v>0.00100601936436141</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.00142137599143933</v>
+        <v>0.00142137609879876</v>
       </c>
       <c r="R36" t="n">
-        <v>0.00318550475452052</v>
+        <v>0.00318550659810897</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0107695444497583</v>
+        <v>0.0107695381775698</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.00137851014575063</v>
+        <v>-0.00137850310436081</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.00140938517567159</v>
+        <v>-0.00140938193482881</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0245447765074966</v>
+        <v>0.0245447756408777</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.00323208054010442</v>
+        <v>-0.00323207663921774</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.0046051433304221</v>
+        <v>-0.00460513995747117</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.00571684225428752</v>
+        <v>-0.00571683805458865</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.00121288876910105</v>
+        <v>-0.00121288999303741</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.00147767391018022</v>
+        <v>-0.0014776735948216</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.00130485819887256</v>
+        <v>0.00130485947819285</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.00328533412124338</v>
+        <v>-0.00328532778227528</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.000510296543936919</v>
+        <v>-0.000510297975293397</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.000191424164987893</v>
+        <v>0.000191426087356408</v>
       </c>
     </row>
     <row r="37">
@@ -4050,73 +4050,73 @@
         <v>-0.00604409383828159</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.00467952394119532</v>
+        <v>-0.00467953238989193</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.00205602580550147</v>
+        <v>-0.00205602749585854</v>
       </c>
       <c r="K37" t="n">
-        <v>0.00385379288569663</v>
+        <v>0.00385379528704522</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00417897682639975</v>
+        <v>0.00417897409111773</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00170543836291731</v>
+        <v>0.00170543419081105</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.00136919357663244</v>
+        <v>-0.00136919824394225</v>
       </c>
       <c r="O37" t="n">
-        <v>0.000815318298516787</v>
+        <v>0.000815316045737165</v>
       </c>
       <c r="P37" t="n">
-        <v>0.00111298569017084</v>
+        <v>0.001112986727516</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.00358733732191638</v>
+        <v>0.00358733693091532</v>
       </c>
       <c r="R37" t="n">
-        <v>0.00105316959784079</v>
+        <v>0.00105316203585144</v>
       </c>
       <c r="S37" t="n">
-        <v>0.00778709707146082</v>
+        <v>0.00778709991168017</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.00131427611587421</v>
+        <v>-0.0013142713347595</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.00774568257053748</v>
+        <v>-0.00774567911370426</v>
       </c>
       <c r="V37" t="n">
-        <v>0.00851081764332616</v>
+        <v>0.00851082961140639</v>
       </c>
       <c r="W37" t="n">
-        <v>0.000719272947710574</v>
+        <v>0.000719271692679082</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.00134492501714913</v>
+        <v>-0.00134492427923353</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.00195179907344385</v>
+        <v>-0.00195180606506159</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.000398809753313606</v>
+        <v>-0.000398811670543206</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.00255073198000276</v>
+        <v>0.00255072932962056</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.00155681680623527</v>
+        <v>0.00155681898321843</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.000691432649074249</v>
+        <v>0.000691432366199009</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.00145047456835358</v>
+        <v>-0.00145047611124716</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.00181013160136284</v>
+        <v>-0.00181013683017853</v>
       </c>
     </row>
     <row r="38">
@@ -4145,73 +4145,73 @@
         <v>-0.00296144893894172</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.00168747746498267</v>
+        <v>-0.00168747628407171</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.00192431170944115</v>
+        <v>-0.00192431146255535</v>
       </c>
       <c r="K38" t="n">
-        <v>0.000933496657854138</v>
+        <v>0.000933496256091434</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.000349556979614627</v>
+        <v>-0.000349556547574251</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00539798988818202</v>
+        <v>0.00539799026529725</v>
       </c>
       <c r="N38" t="n">
-        <v>0.00354554436217225</v>
+        <v>0.00354554434488084</v>
       </c>
       <c r="O38" t="n">
-        <v>0.000190275554947256</v>
+        <v>0.000190275763888932</v>
       </c>
       <c r="P38" t="n">
-        <v>0.000468332836055372</v>
+        <v>0.000468332723135515</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.000585804771452249</v>
+        <v>-0.000585805011761046</v>
       </c>
       <c r="R38" t="n">
-        <v>0.00984747865042686</v>
+        <v>0.0098474760524134</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.0122876705053776</v>
+        <v>-0.0122876744714358</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.00341964447635069</v>
+        <v>-0.00341963390207291</v>
       </c>
       <c r="U38" t="n">
-        <v>0.00520330012852208</v>
+        <v>0.00520330439680625</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0387879903520913</v>
+        <v>0.0387879936839433</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.00111281926269537</v>
+        <v>-0.00111281510685021</v>
       </c>
       <c r="X38" t="n">
-        <v>0.00140075975594376</v>
+        <v>0.00140076399906899</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.00346285612361392</v>
+        <v>0.003462860923729</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.00614578337129868</v>
+        <v>-0.00614578668088161</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.000634138270848692</v>
+        <v>0.000634140359718231</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.00711441545643577</v>
+        <v>0.00711441776027417</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.00375342290125351</v>
+        <v>0.0037534326920258</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.00019174949987814</v>
+        <v>-0.000191750384715611</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.000345019914845134</v>
+        <v>-0.000345023312677211</v>
       </c>
     </row>
     <row r="39">
@@ -4240,73 +4240,73 @@
         <v>0.00042737555152609</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00134180997565514</v>
+        <v>0.00134180652892454</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.000731353507632744</v>
+        <v>-0.000731353678379204</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.00458933029024495</v>
+        <v>-0.00458933160107451</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.00388725172416899</v>
+        <v>-0.00388725034402351</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00145249682059157</v>
+        <v>0.00145249757989855</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.00190250402737695</v>
+        <v>-0.00190250423320967</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.000056674595673805</v>
+        <v>-0.0000566736621894156</v>
       </c>
       <c r="P39" t="n">
-        <v>0.00144662322797359</v>
+        <v>0.00144662521952139</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.000455449577283502</v>
+        <v>-0.000455449764934397</v>
       </c>
       <c r="R39" t="n">
-        <v>0.00103023678535878</v>
+        <v>0.00103023671682958</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0145097390203285</v>
+        <v>-0.0145097360615274</v>
       </c>
       <c r="T39" t="n">
-        <v>0.00262591242222824</v>
+        <v>0.00262590838215597</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.00418510986973788</v>
+        <v>-0.00418511299236764</v>
       </c>
       <c r="V39" t="n">
-        <v>0.00138007268944396</v>
+        <v>0.00138006848064108</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.002562946565591</v>
+        <v>-0.00256294646840197</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.00261851100462625</v>
+        <v>-0.00261851149989103</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.00530271744140724</v>
+        <v>-0.00530271556859692</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.00372525917282456</v>
+        <v>-0.00372525797217438</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.000633450419502021</v>
+        <v>0.000633451885816056</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.00113362868934564</v>
+        <v>0.00113362770418204</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.0044514799948358</v>
+        <v>-0.00445147574332907</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.00366437013192268</v>
+        <v>-0.00366436921899014</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.000369967221889491</v>
+        <v>0.000369965278586545</v>
       </c>
     </row>
     <row r="40">
@@ -4335,73 +4335,73 @@
         <v>0.00407133579437971</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00616698985942018</v>
+        <v>0.00616699453994739</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00674431771695017</v>
+        <v>0.00674431876884443</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.00965124353471265</v>
+        <v>-0.009651244906997</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00314832521492346</v>
+        <v>0.00314832630612282</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00664411400897959</v>
+        <v>0.0066441153895085</v>
       </c>
       <c r="N40" t="n">
-        <v>0.00564217385198871</v>
+        <v>0.00564217485605146</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0101205454421692</v>
+        <v>0.0101205466776953</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.000335205201650353</v>
+        <v>-0.000335204808969475</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.00475870716585727</v>
+        <v>0.00475870726037772</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.000432074798884975</v>
+        <v>-0.000432073971328783</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.030818066169157</v>
+        <v>-0.0308180673410021</v>
       </c>
       <c r="T40" t="n">
-        <v>0.00624350913457994</v>
+        <v>0.00624350993418697</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0102354966848875</v>
+        <v>0.0102354936753722</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.00725708928724961</v>
+        <v>-0.00725709919544549</v>
       </c>
       <c r="W40" t="n">
-        <v>0.00559428932203736</v>
+        <v>0.0055942940058666</v>
       </c>
       <c r="X40" t="n">
-        <v>0.00914509989770991</v>
+        <v>0.0091451031737104</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0103822897539972</v>
+        <v>0.0103822947447731</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0132884491397111</v>
+        <v>0.0132884486318569</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0117515343453072</v>
+        <v>0.0117515377671955</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.00455885344748806</v>
+        <v>-0.00455885227128046</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.00649512144542186</v>
+        <v>0.00649513071187831</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.00340843270263744</v>
+        <v>-0.00340843224712035</v>
       </c>
       <c r="AE40" t="n">
-        <v>-0.00151155158379232</v>
+        <v>-0.00151155396118199</v>
       </c>
     </row>
     <row r="41">
@@ -4430,73 +4430,73 @@
         <v>0.00243797661913138</v>
       </c>
       <c r="I41" t="n">
-        <v>0.002452557367595</v>
+        <v>0.00245253804669303</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00342552611368955</v>
+        <v>0.00342552483758622</v>
       </c>
       <c r="K41" t="n">
-        <v>0.00561096620319625</v>
+        <v>0.00561096749929627</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00300986760578248</v>
+        <v>0.00300986603378249</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00853166201846165</v>
+        <v>0.0085316588581889</v>
       </c>
       <c r="N41" t="n">
-        <v>0.00202859588534031</v>
+        <v>0.00202859161853847</v>
       </c>
       <c r="O41" t="n">
-        <v>0.00584002871743663</v>
+        <v>0.00584002724147283</v>
       </c>
       <c r="P41" t="n">
-        <v>0.00851531081025962</v>
+        <v>0.00851531245891191</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.00869803672792762</v>
+        <v>0.00869803597584235</v>
       </c>
       <c r="R41" t="n">
-        <v>0.00991893115532034</v>
+        <v>0.00991892202926223</v>
       </c>
       <c r="S41" t="n">
-        <v>0.00101708323571118</v>
+        <v>0.0010170852241228</v>
       </c>
       <c r="T41" t="n">
-        <v>0.00530453342310585</v>
+        <v>0.00530454149872896</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.000685354451095712</v>
+        <v>-0.000685352551420496</v>
       </c>
       <c r="V41" t="n">
-        <v>0.075615719805056</v>
+        <v>0.0756157113641733</v>
       </c>
       <c r="W41" t="n">
-        <v>0.000850748777900681</v>
+        <v>0.000850750083859965</v>
       </c>
       <c r="X41" t="n">
-        <v>0.00169293151984462</v>
+        <v>0.00169293382566763</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.00154833260680597</v>
+        <v>0.00154833828605536</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.000386196625877046</v>
+        <v>0.000386194647541805</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.00418938141230548</v>
+        <v>0.00418938035077825</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0107667045723595</v>
+        <v>0.0107667027095092</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0100791345718536</v>
+        <v>0.0100791461238461</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.00496268551898459</v>
+        <v>-0.00496268603755422</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.00269511463778825</v>
+        <v>-0.00269512089973306</v>
       </c>
     </row>
     <row r="42">
@@ -4525,73 +4525,73 @@
         <v>0.000652474754700247</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000644775040932193</v>
+        <v>0.00064478406195199</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00121634224627924</v>
+        <v>0.00121634388205589</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.014145456498974</v>
+        <v>-0.0141454573069781</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.00317767417141119</v>
+        <v>-0.00317767375425478</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.00305372647678542</v>
+        <v>-0.00305372486950886</v>
       </c>
       <c r="N42" t="n">
-        <v>0.00156354366244929</v>
+        <v>0.00156354584904946</v>
       </c>
       <c r="O42" t="n">
-        <v>0.00337493861933807</v>
+        <v>0.00337493968549763</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.00223431013547607</v>
+        <v>-0.00223431097527471</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.00400727704586787</v>
+        <v>-0.00400727684748137</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.00255273684028136</v>
+        <v>-0.00255273444995168</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.00685919974824285</v>
+        <v>-0.00685920220343083</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.00107442006427626</v>
+        <v>-0.00107441959894446</v>
       </c>
       <c r="U42" t="n">
-        <v>0.000996667450165102</v>
+        <v>0.000996667703281231</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.00513259206922346</v>
+        <v>-0.00513259477363046</v>
       </c>
       <c r="W42" t="n">
-        <v>0.00137940694564161</v>
+        <v>0.00137940910630126</v>
       </c>
       <c r="X42" t="n">
-        <v>0.00144604844972291</v>
+        <v>0.00144604998200533</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.000253241723182184</v>
+        <v>0.000253245357980902</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.00335634279130776</v>
+        <v>-0.00335634390090122</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.00413812913330631</v>
+        <v>0.00413813143719539</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.000411753034044223</v>
+        <v>-0.000411752054712799</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.000247627220644329</v>
+        <v>-0.000247620282718893</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.00094984060211698</v>
+        <v>0.000949841005774481</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.000485818987439565</v>
+        <v>-0.000485819952894817</v>
       </c>
     </row>
     <row r="43">
@@ -4620,73 +4620,73 @@
         <v>0.00199774169596568</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0037406411267472</v>
+        <v>-0.00374065173501889</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.00198989133637574</v>
+        <v>-0.00198989279296035</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.00211819956858249</v>
+        <v>-0.00211819800295287</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.00718931590952447</v>
+        <v>-0.00718931743366391</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0109699343292119</v>
+        <v>-0.0109699363999103</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.00842752492064875</v>
+        <v>-0.00842752694155423</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.00683225804530851</v>
+        <v>-0.00683225936126144</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.00141825144593907</v>
+        <v>-0.00141825074114926</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.00211143371350137</v>
+        <v>-0.00211143360847261</v>
       </c>
       <c r="R43" t="n">
-        <v>0.000337515278071233</v>
+        <v>0.00033751358672221</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0187065045858763</v>
+        <v>0.0187065065423518</v>
       </c>
       <c r="T43" t="n">
-        <v>0.000959623410981022</v>
+        <v>0.000959623139292393</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0143024687735535</v>
+        <v>-0.01430246873676</v>
       </c>
       <c r="V43" t="n">
-        <v>0.00706471946286893</v>
+        <v>0.00706472037353419</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.00929608036471449</v>
+        <v>-0.00929608290465305</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.0117541936901697</v>
+        <v>-0.0117541955864528</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.0191672740447527</v>
+        <v>-0.0191672761915341</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.0150081266923603</v>
+        <v>-0.0150081243103672</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.00500345542434662</v>
+        <v>-0.00500345849630292</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.00684416751637666</v>
+        <v>-0.00684416993997759</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.0237402377084912</v>
+        <v>-0.0237402410301128</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0000938489970710449</v>
+        <v>0.0000938462414344374</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.00101139773051168</v>
+        <v>0.0010114018488963</v>
       </c>
     </row>
     <row r="44">
@@ -4715,73 +4715,73 @@
         <v>-0.00698901487277208</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.000752843836785028</v>
+        <v>-0.000752828234494906</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.000563555778712056</v>
+        <v>-0.000563555336838971</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.00150571684308531</v>
+        <v>-0.00150571875845442</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0056757149342567</v>
+        <v>0.005675716715514</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0112272518396928</v>
+        <v>0.011227252869051</v>
       </c>
       <c r="N44" t="n">
-        <v>0.00799761683306317</v>
+        <v>0.00799761679069065</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0057228046793242</v>
+        <v>0.00572280596284256</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.00694943726522996</v>
+        <v>-0.00694943649400158</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.0057174963491605</v>
+        <v>-0.00571749620476922</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0082612192075707</v>
+        <v>0.00826121790788412</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0116606724530742</v>
+        <v>0.0116606710659263</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.00674154145707829</v>
+        <v>-0.00674153692267659</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0000663395983554505</v>
+        <v>0.0000663414803332699</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.0217668440236662</v>
+        <v>-0.0217668300942219</v>
       </c>
       <c r="W44" t="n">
-        <v>0.00446730270658702</v>
+        <v>0.0044673045951502</v>
       </c>
       <c r="X44" t="n">
-        <v>0.00178303343606085</v>
+        <v>0.0017830353755441</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0084916483391297</v>
+        <v>0.00849164395036199</v>
       </c>
       <c r="Z44" t="n">
-        <v>-0.00139908116713617</v>
+        <v>-0.00139908302582696</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.00762498042165193</v>
+        <v>0.00762498300598134</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0000509610831445322</v>
+        <v>0.0000509651684489073</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.00585829379579023</v>
+        <v>0.00585829332579245</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0051405163355277</v>
+        <v>0.00514051634630348</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.00305571842953276</v>
+        <v>0.00305571508748442</v>
       </c>
     </row>
     <row r="45">
@@ -4810,73 +4810,73 @@
         <v>-0.00952627550002093</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.014687014900913</v>
+        <v>-0.0146870155153211</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0152643257812317</v>
+        <v>-0.0152643257220127</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0198869626350832</v>
+        <v>-0.0198869603193181</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.024964232883995</v>
+        <v>-0.0249642350119702</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0328338304243161</v>
+        <v>-0.0328338305564672</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.013334498413949</v>
+        <v>-0.0133344966108369</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0177115260736884</v>
+        <v>-0.0177115273778289</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.00818541961717008</v>
+        <v>-0.00818542252769778</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0272904087258088</v>
+        <v>-0.0272904084604927</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.0145049482438137</v>
+        <v>-0.0145049439973351</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0142049037202683</v>
+        <v>0.0142049017005594</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.0097026135606717</v>
+        <v>-0.00970261607063005</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.0119969598176338</v>
+        <v>-0.0119969587759823</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.0387586416678805</v>
+        <v>-0.0387586438449677</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.0132753668700001</v>
+        <v>-0.0132753691533586</v>
       </c>
       <c r="X45" t="n">
-        <v>-0.0153982168894632</v>
+        <v>-0.0153982189853969</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.028390600887284</v>
+        <v>-0.0283906016083236</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.0306103606050364</v>
+        <v>-0.0306103598748737</v>
       </c>
       <c r="AA45" t="n">
-        <v>-0.0156006054054951</v>
+        <v>-0.0156006076354659</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.0101787991473711</v>
+        <v>-0.0101788002110491</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.0278050466890574</v>
+        <v>-0.0278050488654164</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.00379965036868895</v>
+        <v>0.00379964933085568</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.00588655571101102</v>
+        <v>0.00588656080944183</v>
       </c>
     </row>
     <row r="46">
@@ -4905,73 +4905,73 @@
         <v>0.0105371212793287</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0129480002365311</v>
+        <v>0.012947995884823</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00847538298026974</v>
+        <v>0.00847538225336312</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0183288132867802</v>
+        <v>0.0183288091774222</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0113627195944688</v>
+        <v>0.0113627242805151</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0178063937748839</v>
+        <v>0.0178063962517415</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0066757537782593</v>
+        <v>0.006675753811086</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0059229765068478</v>
+        <v>0.00592297917007708</v>
       </c>
       <c r="P46" t="n">
-        <v>0.00532846030216182</v>
+        <v>0.00532846460266278</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0200740997893906</v>
+        <v>0.020074099989795</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0163254012107235</v>
+        <v>0.0163254025063406</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.0125912930475299</v>
+        <v>-0.0125912897595735</v>
       </c>
       <c r="T46" t="n">
-        <v>0.00784037433246232</v>
+        <v>0.00784037000687018</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0083121926936406</v>
+        <v>0.00831218872769347</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0370908068894927</v>
+        <v>0.0370908046569665</v>
       </c>
       <c r="W46" t="n">
-        <v>0.00416517114658115</v>
+        <v>0.00416517112818077</v>
       </c>
       <c r="X46" t="n">
-        <v>0.00611188311193273</v>
+        <v>0.00611188208394885</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0176602731612625</v>
+        <v>0.0176602776527479</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0127142728851094</v>
+        <v>0.0127142745543645</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.00408975640444229</v>
+        <v>0.00408976000729533</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.012484373923483</v>
+        <v>0.0124843721839637</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0174105320499845</v>
+        <v>0.017410532546415</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.00124810197279986</v>
+        <v>0.00124810478807436</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.000866715564825948</v>
+        <v>-0.0008667183432921</v>
       </c>
     </row>
     <row r="47">
@@ -5000,73 +5000,73 @@
         <v>0.00380487223604254</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00462302357777263</v>
+        <v>0.00462301218106709</v>
       </c>
       <c r="J47" t="n">
-        <v>0.00384031358403995</v>
+        <v>0.00384031184860689</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.00354467285993582</v>
+        <v>-0.0035446723177302</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00317129518919586</v>
+        <v>0.0031712943903134</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.00619666200808825</v>
+        <v>-0.00619666447551478</v>
       </c>
       <c r="N47" t="n">
-        <v>0.000797695549664633</v>
+        <v>0.000797691744321714</v>
       </c>
       <c r="O47" t="n">
-        <v>0.00375494991613219</v>
+        <v>0.00375494898516645</v>
       </c>
       <c r="P47" t="n">
-        <v>0.00484938808456938</v>
+        <v>0.00484939059915182</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.00312446697853427</v>
+        <v>0.00312446647045021</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.00685840882732027</v>
+        <v>-0.00685841343114178</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.00672920463556401</v>
+        <v>-0.00672919684255712</v>
       </c>
       <c r="T47" t="n">
-        <v>0.00461533640672927</v>
+        <v>0.00461532935337809</v>
       </c>
       <c r="U47" t="n">
-        <v>0.00166154141514736</v>
+        <v>0.00166153846685538</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.00864762955597035</v>
+        <v>-0.00864763270213918</v>
       </c>
       <c r="W47" t="n">
-        <v>0.00617647567309765</v>
+        <v>0.00617647154103394</v>
       </c>
       <c r="X47" t="n">
-        <v>0.00854808116502969</v>
+        <v>0.00854807809133709</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.00384548458469829</v>
+        <v>0.00384548203302909</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0134267217707148</v>
+        <v>0.013426722926236</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.00611097748394482</v>
+        <v>0.00611097547723863</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.00266423074611547</v>
+        <v>0.00266422823349003</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.00446180729105235</v>
+        <v>0.00446180624716919</v>
       </c>
       <c r="AD47" t="n">
-        <v>-0.00317441133457793</v>
+        <v>-0.00317441141029528</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.00181991297644545</v>
+        <v>-0.00181991503271508</v>
       </c>
     </row>
     <row r="48">
@@ -5095,73 +5095,73 @@
         <v>0.00724446889252978</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00510699305589463</v>
+        <v>0.00510699674945877</v>
       </c>
       <c r="J48" t="n">
-        <v>0.00367087973503871</v>
+        <v>0.00367088130459054</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00293298584009871</v>
+        <v>0.0029329833361362</v>
       </c>
       <c r="L48" t="n">
-        <v>0.000684534529402209</v>
+        <v>0.000684537116405281</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.00968049917846453</v>
+        <v>-0.00968049539471018</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.000625851985281317</v>
+        <v>-0.000625847673842481</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.0015906003009065</v>
+        <v>-0.00159059809961072</v>
       </c>
       <c r="P48" t="n">
-        <v>0.00189415338961684</v>
+        <v>0.00189415293905437</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0048103694491046</v>
+        <v>0.00481036973214465</v>
       </c>
       <c r="R48" t="n">
-        <v>0.00432937451132872</v>
+        <v>0.00432938090729875</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.0093449313015006</v>
+        <v>-0.00934493436799909</v>
       </c>
       <c r="T48" t="n">
-        <v>0.00291950513475543</v>
+        <v>0.00291950245710365</v>
       </c>
       <c r="U48" t="n">
-        <v>0.00270456291836037</v>
+        <v>0.00270456109605615</v>
       </c>
       <c r="V48" t="n">
-        <v>-0.0144452186769738</v>
+        <v>-0.0144452183995433</v>
       </c>
       <c r="W48" t="n">
-        <v>0.00225071254946386</v>
+        <v>0.00225071707367119</v>
       </c>
       <c r="X48" t="n">
-        <v>0.00529080281882741</v>
+        <v>0.00529080557879714</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.003064969011305</v>
+        <v>0.00306497249747254</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.00410386352757338</v>
+        <v>0.00410386205349663</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.000852689477319376</v>
+        <v>0.000852694844439457</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.00102037973022572</v>
+        <v>-0.00102037592200281</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.00312864142524403</v>
+        <v>0.00312864887017408</v>
       </c>
       <c r="AD48" t="n">
-        <v>-0.00240883109381886</v>
+        <v>-0.00240882954162646</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.00323837379876714</v>
+        <v>0.0032383722801306</v>
       </c>
     </row>
     <row r="49">
@@ -5190,73 +5190,73 @@
         <v>0.00381352930925301</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00476129142996373</v>
+        <v>0.00476129191639569</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00298185502940046</v>
+        <v>0.00298185489127745</v>
       </c>
       <c r="K49" t="n">
-        <v>0.00271693417824293</v>
+        <v>0.00271693373146346</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00677404526483083</v>
+        <v>0.00677404548252239</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.00086509531696767</v>
+        <v>-0.000865095685198511</v>
       </c>
       <c r="N49" t="n">
-        <v>0.00109718274865459</v>
+        <v>0.0010971820338919</v>
       </c>
       <c r="O49" t="n">
-        <v>0.00170634720447039</v>
+        <v>0.00170634739947535</v>
       </c>
       <c r="P49" t="n">
-        <v>0.00500293610081702</v>
+        <v>0.00500293725735246</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.00574501917157433</v>
+        <v>0.00574501893850227</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.00404613697623322</v>
+        <v>-0.00404613769148525</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.00192258458335566</v>
+        <v>-0.00192258108734978</v>
       </c>
       <c r="T49" t="n">
-        <v>0.00514691033917027</v>
+        <v>0.00514690507267452</v>
       </c>
       <c r="U49" t="n">
-        <v>0.00614261792739722</v>
+        <v>0.00614261491413328</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0130616519910794</v>
+        <v>0.0130616410226072</v>
       </c>
       <c r="W49" t="n">
-        <v>0.00426841739467867</v>
+        <v>0.00426841604737287</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0083330741047547</v>
+        <v>0.00833307262475579</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0121257726573088</v>
+        <v>0.0121257762634206</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0143000811935876</v>
+        <v>0.0143000815866159</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.00150250513176558</v>
+        <v>0.00150250514501964</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.00508873259824364</v>
+        <v>0.00508872999476043</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0119209958518591</v>
+        <v>0.011920995852427</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.00109555180492866</v>
+        <v>-0.00109554976596359</v>
       </c>
       <c r="AE49" t="n">
-        <v>-0.00406740102639857</v>
+        <v>-0.00406740227721474</v>
       </c>
     </row>
     <row r="50">
@@ -5285,73 +5285,73 @@
         <v>0.000365575290496882</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.00311515333785473</v>
+        <v>-0.00311515139945631</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.00666495250409371</v>
+        <v>-0.00666495262784341</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0120838382035289</v>
+        <v>-0.0120838387658777</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0121844755518694</v>
+        <v>-0.0121844749791254</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00239114022697134</v>
+        <v>0.00239114028952833</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.000630626426648414</v>
+        <v>-0.000630627307759169</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.00366919127375778</v>
+        <v>-0.00366919091400592</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.00320708039283623</v>
+        <v>-0.00320707968765942</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.0147760274160676</v>
+        <v>-0.0147760274906052</v>
       </c>
       <c r="R50" t="n">
-        <v>0.000260333577133387</v>
+        <v>0.000260332083761978</v>
       </c>
       <c r="S50" t="n">
-        <v>0.000865737723252476</v>
+        <v>0.000865739287481185</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.00493227478389122</v>
+        <v>-0.00493227524928846</v>
       </c>
       <c r="U50" t="n">
-        <v>-0.0140713528536896</v>
+        <v>-0.0140713526081726</v>
       </c>
       <c r="V50" t="n">
-        <v>-0.0661897844256561</v>
+        <v>-0.0661897660775414</v>
       </c>
       <c r="W50" t="n">
-        <v>-0.0032403066007246</v>
+        <v>-0.00324030703386093</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.00840156233539074</v>
+        <v>-0.00840156245177349</v>
       </c>
       <c r="Y50" t="n">
-        <v>-0.0123322301492001</v>
+        <v>-0.0123322417649497</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.00573223346237185</v>
+        <v>-0.00573223286115595</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.000992228904767549</v>
+        <v>0.000992228357826385</v>
       </c>
       <c r="AB50" t="n">
-        <v>-0.0179530869869341</v>
+        <v>-0.0179530832667098</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.0172931252265546</v>
+        <v>-0.0172931380254138</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.00392209077433283</v>
+        <v>0.003922089606916</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.0100899090059314</v>
+        <v>0.0100899111939236</v>
       </c>
     </row>
     <row r="51">
@@ -5380,73 +5380,73 @@
         <v>0.0000475683138924277</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00562984849877156</v>
+        <v>0.00562983961605224</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00577184576724515</v>
+        <v>0.00577184462153923</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.000362880478396904</v>
+        <v>-0.000362881370839687</v>
       </c>
       <c r="L51" t="n">
-        <v>0.00677358873466373</v>
+        <v>0.00677358944592299</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.00655278987974783</v>
+        <v>-0.00655279064562776</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00411845936742916</v>
+        <v>0.0041184571638003</v>
       </c>
       <c r="O51" t="n">
-        <v>0.00646180535186025</v>
+        <v>0.00646180555249389</v>
       </c>
       <c r="P51" t="n">
-        <v>0.00331950710914605</v>
+        <v>0.00331950964654392</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0070205738773</v>
+        <v>0.00702057364142566</v>
       </c>
       <c r="R51" t="n">
-        <v>0.00191118603916937</v>
+        <v>0.00191118297903278</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.0148599848563604</v>
+        <v>-0.0148599810903913</v>
       </c>
       <c r="T51" t="n">
-        <v>0.00732104882431201</v>
+        <v>0.00732104729848188</v>
       </c>
       <c r="U51" t="n">
-        <v>0.00788831719991935</v>
+        <v>0.00788831387558904</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0107279173705786</v>
+        <v>0.0107279104763422</v>
       </c>
       <c r="W51" t="n">
-        <v>0.00744167660574542</v>
+        <v>0.00744167826692896</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0111349363501252</v>
+        <v>0.0111349376247025</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0155309900718898</v>
+        <v>0.0155309922258528</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0105255138459085</v>
+        <v>0.0105255128266635</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.00797303538137932</v>
+        <v>0.00797303784310255</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.00843260551634905</v>
+        <v>0.00843260625606028</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0107682177360071</v>
+        <v>0.0107682244794581</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.000917547264126056</v>
+        <v>0.000917547752235897</v>
       </c>
       <c r="AE51" t="n">
-        <v>-0.000929770201262319</v>
+        <v>-0.00092977518909212</v>
       </c>
     </row>
     <row r="52">
@@ -5475,73 +5475,73 @@
         <v>-0.00368242431113596</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.00101648102503112</v>
+        <v>-0.00101647982945157</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.00261748630956982</v>
+        <v>-0.00261748667347059</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0104470038315852</v>
+        <v>0.0104470035256977</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00507433922450732</v>
+        <v>0.00507433978018276</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00144279261143437</v>
+        <v>0.0014427928165479</v>
       </c>
       <c r="N52" t="n">
-        <v>0.00153019795943837</v>
+        <v>0.00153019785326132</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.00455999485374675</v>
+        <v>-0.00455999495626029</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.000346436943655776</v>
+        <v>-0.000346437759013818</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.00115176324687901</v>
+        <v>0.00115176330898568</v>
       </c>
       <c r="R52" t="n">
-        <v>0.00209630817041347</v>
+        <v>0.0020963082360198</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.0025365475879452</v>
+        <v>-0.0025365492989998</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.000519250529208013</v>
+        <v>-0.000519247777819629</v>
       </c>
       <c r="U52" t="n">
-        <v>0.00636021466563803</v>
+        <v>0.00636021467197668</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.00922425397518384</v>
+        <v>-0.00922425206913459</v>
       </c>
       <c r="W52" t="n">
-        <v>0.00256363204521446</v>
+        <v>0.00256363481742242</v>
       </c>
       <c r="X52" t="n">
-        <v>0.00333943896956436</v>
+        <v>0.00333944128633983</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.00953028133873633</v>
+        <v>0.00953028018378574</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.00614577525686494</v>
+        <v>0.00614577338709444</v>
       </c>
       <c r="AA52" t="n">
-        <v>-0.00202070898796294</v>
+        <v>-0.00202070740809759</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.0014696567188729</v>
+        <v>0.00146965983349794</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.00216428638338116</v>
+        <v>0.0021642860933682</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.000062627717024841</v>
+        <v>0.0000626270889792341</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.000694373620866513</v>
+        <v>0.000694372823015766</v>
       </c>
     </row>
     <row r="53">
@@ -5570,73 +5570,73 @@
         <v>-0.0034208562378176</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.00169170333467317</v>
+        <v>-0.00169169413260984</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.00327244637905998</v>
+        <v>-0.00327244602403097</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.00505589088995069</v>
+        <v>-0.00505589215475562</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.00583133042632965</v>
+        <v>-0.00583132885216209</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.00960531840242698</v>
+        <v>-0.00960531624641723</v>
       </c>
       <c r="N53" t="n">
-        <v>0.00148781310487031</v>
+        <v>0.0014878153526349</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.00708886021542232</v>
+        <v>-0.00708885932829816</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0013640688858993</v>
+        <v>0.00136406879948288</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.0122721792788721</v>
+        <v>-0.0122721797915188</v>
       </c>
       <c r="R53" t="n">
-        <v>0.00590287919511904</v>
+        <v>0.0059028811413702</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.0112061733388803</v>
+        <v>-0.0112061743979296</v>
       </c>
       <c r="T53" t="n">
-        <v>0.000648417537775288</v>
+        <v>0.000648417051962856</v>
       </c>
       <c r="U53" t="n">
-        <v>0.000847608419599544</v>
+        <v>0.000847606945072933</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.0268413129068806</v>
+        <v>-0.0268413139244905</v>
       </c>
       <c r="W53" t="n">
-        <v>-0.000372299326659838</v>
+        <v>-0.000372295492807756</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0000608877158140203</v>
+        <v>0.0000608902034904858</v>
       </c>
       <c r="Y53" t="n">
-        <v>-0.000321409239119313</v>
+        <v>-0.000321407365341654</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.00132014250547361</v>
+        <v>0.00132014190954408</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.00267249315722943</v>
+        <v>0.0026724960461605</v>
       </c>
       <c r="AB53" t="n">
-        <v>-0.00600925899055857</v>
+        <v>-0.00600925642269669</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.00779597651408491</v>
+        <v>-0.00779597199323215</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.00620522717880771</v>
+        <v>0.00620522678317934</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.00844738299867966</v>
+        <v>0.00844738384088662</v>
       </c>
     </row>
     <row r="54">
@@ -5665,73 +5665,73 @@
         <v>0.00193791745762811</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000749020761315023</v>
+        <v>0.000749019310359024</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.00044580644299662</v>
+        <v>-0.000445806687980599</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00218485190542454</v>
+        <v>0.00218485183723391</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0018039124327133</v>
+        <v>-0.00180391209333964</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.00788129941158157</v>
+        <v>-0.00788129891680324</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.000217086743330604</v>
+        <v>-0.000217086025110737</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.00136470845450446</v>
+        <v>-0.00136470846103197</v>
       </c>
       <c r="P54" t="n">
-        <v>0.00214458402796231</v>
+        <v>0.00214458440189186</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.00568515633652331</v>
+        <v>0.00568515614215979</v>
       </c>
       <c r="R54" t="n">
-        <v>0.00106758650901206</v>
+        <v>0.00106758726992101</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.0185129481663375</v>
+        <v>-0.0185129490237864</v>
       </c>
       <c r="T54" t="n">
-        <v>0.00617936196573001</v>
+        <v>0.00617936277791212</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0067037569085026</v>
+        <v>0.00670375518385587</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0216279250504472</v>
+        <v>0.0216279112433023</v>
       </c>
       <c r="W54" t="n">
-        <v>-0.00444155805370158</v>
+        <v>-0.00444155696765774</v>
       </c>
       <c r="X54" t="n">
-        <v>-0.00132376735652232</v>
+        <v>-0.00132376704666824</v>
       </c>
       <c r="Y54" t="n">
-        <v>-0.00172273409624742</v>
+        <v>-0.00172272684746639</v>
       </c>
       <c r="Z54" t="n">
-        <v>-0.00509226812429004</v>
+        <v>-0.00509226681645724</v>
       </c>
       <c r="AA54" t="n">
-        <v>-0.00336677600205963</v>
+        <v>-0.00336677562051918</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.00749695522794468</v>
+        <v>0.00749695229017432</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.00103556739707893</v>
+        <v>-0.00103556059930592</v>
       </c>
       <c r="AD54" t="n">
-        <v>-0.00271448424549524</v>
+        <v>-0.00271448426560808</v>
       </c>
       <c r="AE54" t="n">
-        <v>-0.00153703640911708</v>
+        <v>-0.00153703551655137</v>
       </c>
     </row>
     <row r="55">
@@ -5760,73 +5760,73 @@
         <v>-0.00382651832794504</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.00300985623820136</v>
+        <v>-0.00300985537641976</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.000135296380429789</v>
+        <v>-0.000135295999678267</v>
       </c>
       <c r="K55" t="n">
-        <v>0.00495937984444531</v>
+        <v>0.00495938155085009</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00314333696542636</v>
+        <v>0.00314333517257821</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0182173895263269</v>
+        <v>0.018217388003776</v>
       </c>
       <c r="N55" t="n">
-        <v>0.00235561975446474</v>
+        <v>0.00235561886740819</v>
       </c>
       <c r="O55" t="n">
-        <v>0.00588268698312995</v>
+        <v>0.0058826858621363</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.000970521399498503</v>
+        <v>-0.000970522722076882</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.0042122742793454</v>
+        <v>0.00421227422394651</v>
       </c>
       <c r="R55" t="n">
-        <v>0.00479243351998192</v>
+        <v>0.00479242992277953</v>
       </c>
       <c r="S55" t="n">
-        <v>0.00704149510964549</v>
+        <v>0.00704149098216263</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.00207373053861927</v>
+        <v>-0.00207371980243711</v>
       </c>
       <c r="U55" t="n">
-        <v>0.00526434980701252</v>
+        <v>0.00526435393790244</v>
       </c>
       <c r="V55" t="n">
-        <v>0.0249485405582054</v>
+        <v>0.0249485424374888</v>
       </c>
       <c r="W55" t="n">
-        <v>0.00135968670058942</v>
+        <v>0.00135969027255306</v>
       </c>
       <c r="X55" t="n">
-        <v>0.00164551323255613</v>
+        <v>0.00164551739836015</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.00677202308417045</v>
+        <v>0.00677202325098233</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.00110072523224494</v>
+        <v>0.00110072158350534</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.00335613054437459</v>
+        <v>0.00335613104643196</v>
       </c>
       <c r="AB55" t="n">
-        <v>-0.0000664470966137796</v>
+        <v>-0.0000664437014188462</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0042895779068096</v>
+        <v>0.00428958245989168</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.000695471459422485</v>
+        <v>0.000695470097838825</v>
       </c>
       <c r="AE55" t="n">
-        <v>-0.00217700447730218</v>
+        <v>-0.00217700711912427</v>
       </c>
     </row>
     <row r="56">
@@ -5855,73 +5855,73 @@
         <v>-0.00124404027496989</v>
       </c>
       <c r="I56" t="n">
-        <v>0.000624955507684061</v>
+        <v>0.000624965640035854</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0018874609847833</v>
+        <v>0.00188746254422604</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0014354018128356</v>
+        <v>-0.00143540212892932</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00365910800881996</v>
+        <v>0.00365910811299256</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0124616889239087</v>
+        <v>0.012461689914671</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00440660939073742</v>
+        <v>0.00440661103563198</v>
       </c>
       <c r="O56" t="n">
-        <v>0.00521867952999668</v>
+        <v>0.00521868008714391</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.000784684022931456</v>
+        <v>-0.000784685472439765</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.00013602654736382</v>
+        <v>0.00013602654610822</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.00226805824979841</v>
+        <v>-0.00226805707992428</v>
       </c>
       <c r="S56" t="n">
-        <v>0.000373185362977735</v>
+        <v>0.000373183047765024</v>
       </c>
       <c r="T56" t="n">
-        <v>0.000449593500106973</v>
+        <v>0.000449594355429964</v>
       </c>
       <c r="U56" t="n">
-        <v>0.00399248544920027</v>
+        <v>0.00399248539051934</v>
       </c>
       <c r="V56" t="n">
-        <v>0.00378786463930715</v>
+        <v>0.00378785975458015</v>
       </c>
       <c r="W56" t="n">
-        <v>0.00336576744835415</v>
+        <v>0.00336577031692413</v>
       </c>
       <c r="X56" t="n">
-        <v>0.00444000599682079</v>
+        <v>0.00444000815037379</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.00617787984255942</v>
+        <v>0.00617788371206237</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.00559158388048514</v>
+        <v>0.00559158262776318</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.00382240853632231</v>
+        <v>0.00382240997216809</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.00313898328149385</v>
+        <v>0.00313898413147189</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.00661797648917933</v>
+        <v>0.00661798317925832</v>
       </c>
       <c r="AD56" t="n">
-        <v>-0.000986586380761342</v>
+        <v>-0.000986586119685653</v>
       </c>
       <c r="AE56" t="n">
-        <v>-0.00250595140585983</v>
+        <v>-0.00250595217885391</v>
       </c>
     </row>
     <row r="57">
@@ -5950,73 +5950,73 @@
         <v>-0.00120013966841131</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0015306328499337</v>
+        <v>0.00153062478805647</v>
       </c>
       <c r="J57" t="n">
-        <v>0.000502595650465435</v>
+        <v>0.000502593587476889</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.00261591481415737</v>
+        <v>-0.00261591495232323</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.000801178975295511</v>
+        <v>-0.000801178773034069</v>
       </c>
       <c r="M57" t="n">
-        <v>0.00288084896413997</v>
+        <v>0.00288084690670203</v>
       </c>
       <c r="N57" t="n">
-        <v>0.00174043035041725</v>
+        <v>0.0017404263170208</v>
       </c>
       <c r="O57" t="n">
-        <v>0.00177848079871593</v>
+        <v>0.00177848025440757</v>
       </c>
       <c r="P57" t="n">
-        <v>0.00211732474415902</v>
+        <v>0.00211732804339265</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.00148418371907964</v>
+        <v>0.00148418329872061</v>
       </c>
       <c r="R57" t="n">
-        <v>0.000557905705922189</v>
+        <v>0.000557900397505227</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.00778142092897461</v>
+        <v>-0.00778141463311562</v>
       </c>
       <c r="T57" t="n">
-        <v>0.00174896251242691</v>
+        <v>0.00174896001604411</v>
       </c>
       <c r="U57" t="n">
-        <v>0.00300783983676022</v>
+        <v>0.0030078380297317</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0491857860987027</v>
+        <v>0.0491857728455337</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.00177906555767456</v>
+        <v>-0.00177907072135232</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.00123370295876722</v>
+        <v>-0.0012337070619721</v>
       </c>
       <c r="Y57" t="n">
-        <v>-0.00147879973231885</v>
+        <v>-0.00147879376204529</v>
       </c>
       <c r="Z57" t="n">
-        <v>-0.00190864636534262</v>
+        <v>-0.00190864396242264</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.00310408708172646</v>
+        <v>0.00310408458026741</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.00523722166128695</v>
+        <v>0.00523721416732821</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.0031196667201561</v>
+        <v>0.00311966942527781</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.0000555586798628089</v>
+        <v>0.0000555596546523559</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.00383545611253494</v>
+        <v>-0.00383545810804653</v>
       </c>
     </row>
   </sheetData>
